--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428422A2-FEED-4F76-AFAA-BC0CD6E338C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8B36C-01D8-4BBF-8067-A8C7071D56BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="90">
   <si>
     <t>Player</t>
   </si>
@@ -173,21 +173,12 @@
     <t xml:space="preserve">Zhongli </t>
   </si>
   <si>
-    <t>Hu Tao</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yelan </t>
   </si>
   <si>
-    <t>Xinqiu</t>
-  </si>
-  <si>
     <t>Xinyan</t>
   </si>
   <si>
-    <t>Rosari</t>
-  </si>
-  <si>
     <t>Kazuha</t>
   </si>
   <si>
@@ -197,9 +188,6 @@
     <t xml:space="preserve">Kokomi </t>
   </si>
   <si>
-    <t xml:space="preserve">Bennet </t>
-  </si>
-  <si>
     <t>Rosaria</t>
   </si>
   <si>
@@ -224,15 +212,9 @@
     <t>Yae</t>
   </si>
   <si>
-    <t xml:space="preserve">Venti </t>
-  </si>
-  <si>
     <t xml:space="preserve">Traveler </t>
   </si>
   <si>
-    <t xml:space="preserve">Hu Tao </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Yelan</t>
   </si>
   <si>
@@ -318,6 +300,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=8SINKdR-urw&amp;ab_channel=yangi</t>
+  </si>
+  <si>
+    <t>HuTao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HuTao </t>
   </si>
 </sst>
 </file>
@@ -743,7 +731,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3">
         <v>0.15972222222222224</v>
@@ -827,22 +815,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3">
         <v>0.29305555555555557</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>43</v>
@@ -862,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3">
         <v>0.23055555555555554</v>
@@ -871,13 +859,13 @@
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>26</v>
@@ -897,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3">
         <v>0.32430555555555557</v>
@@ -906,7 +894,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>42</v>
@@ -921,7 +909,7 @@
         <v>33</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>39</v>
@@ -932,16 +920,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3">
         <v>0.25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>37</v>
@@ -967,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3">
         <v>0.20347222222222219</v>
@@ -976,13 +964,13 @@
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>53</v>
@@ -1002,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3">
         <v>0.29930555555555555</v>
@@ -1011,7 +999,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>42</v>
@@ -1023,10 +1011,10 @@
         <v>27</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>39</v>
@@ -1037,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C9" s="3">
         <v>0.21458333333333335</v>
@@ -1046,22 +1034,22 @@
         <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>31</v>
@@ -1072,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3">
         <v>0.35625000000000001</v>
@@ -1081,10 +1069,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>23</v>
@@ -1096,7 +1084,7 @@
         <v>35</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>39</v>
@@ -1107,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3">
         <v>0.21666666666666667</v>
@@ -1116,22 +1104,22 @@
         <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>31</v>
@@ -1142,22 +1130,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3">
         <v>0.20972222222222223</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>22</v>
@@ -1169,7 +1157,7 @@
         <v>23</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1177,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3">
         <v>0.1451388888888889</v>
@@ -1198,10 +1186,10 @@
         <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>38</v>
@@ -1212,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3">
         <v>0.26597222222222222</v>
@@ -1221,13 +1209,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>29</v>
@@ -1236,7 +1224,7 @@
         <v>35</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>39</v>
@@ -1247,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3">
         <v>0.22569444444444445</v>
@@ -1256,7 +1244,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>31</v>
@@ -1265,16 +1253,16 @@
         <v>32</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1282,19 +1270,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3">
         <v>0.30902777777777779</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>41</v>
@@ -1306,7 +1294,7 @@
         <v>35</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>39</v>
@@ -1317,28 +1305,28 @@
         <v>10</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3">
         <v>0.28263888888888888</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>38</v>
@@ -1352,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3">
         <v>0.19722222222222222</v>
@@ -1361,25 +1349,25 @@
         <v>26</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8B36C-01D8-4BBF-8067-A8C7071D56BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2348BE8-541C-4649-908F-5D8319596F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="151">
   <si>
     <t>Player</t>
   </si>
@@ -306,6 +306,189 @@
   </si>
   <si>
     <t xml:space="preserve">HuTao </t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Kurogami</t>
+  </si>
+  <si>
+    <t>Xardas</t>
+  </si>
+  <si>
+    <t>Sucrose</t>
+  </si>
+  <si>
+    <t>Eula</t>
+  </si>
+  <si>
+    <t>Collei</t>
+  </si>
+  <si>
+    <t>Tighnari</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Razor</t>
+  </si>
+  <si>
+    <t>Diona</t>
+  </si>
+  <si>
+    <t>Yangi (INVALID)</t>
+  </si>
+  <si>
+    <t>Foe</t>
+  </si>
+  <si>
+    <t>Yanfei</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Candace</t>
+  </si>
+  <si>
+    <t>Thoma</t>
+  </si>
+  <si>
+    <t>Zakharov</t>
+  </si>
+  <si>
+    <t>Itto</t>
+  </si>
+  <si>
+    <t>Gorou</t>
+  </si>
+  <si>
+    <t>Somnusstella</t>
+  </si>
+  <si>
+    <t>Mellow</t>
+  </si>
+  <si>
+    <t>Cyno</t>
+  </si>
+  <si>
+    <t>Yoimiya</t>
+  </si>
+  <si>
+    <t>Yunjin</t>
+  </si>
+  <si>
+    <t>KennyL</t>
+  </si>
+  <si>
+    <t>Tartaglia</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZNSjtO7VNpU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/KTANZyXYw5Q</t>
+  </si>
+  <si>
+    <t>https://youtu.be/JJRfatK1ZKw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2rmOmkMKW88</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cD-eIiIqbeY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BKtLm6qSteQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9j7RSJE6OrQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TZBjd-u4XbI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/n-DqOUTzqCY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1k2vgeriLrE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zsMMcYaBNh4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xIyZl2Y3hdE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/04HHzzcTeYc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/P0xA2aQR-2c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fzNwu0vSSqM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M9JHjyrEFaU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CytBmAqQThs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UBnTpNza7rs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pNCGhDwiRJc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/yvnsLyGo-9Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/9rZ0DvUArYA </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LcSZDqLYHVc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RXa7GlzOkkQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Kc2qup50QLY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QadX7yneqhk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/l59lUoEHhf0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yyB0ANuSXiU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_24QambPjeY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-fAbOnP1stI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ILAoTertnyQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/qJW-S5O77EQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HXmSwlt6sMA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/FW-_XMNTORY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aqT5mIXVgFA</t>
+  </si>
+  <si>
+    <t>No Link</t>
   </si>
 </sst>
 </file>
@@ -342,15 +525,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -384,12 +573,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -403,16 +652,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -728,669 +1016,2076 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.15972222222222224</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.28541666666666665</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.29305555555555557</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="C4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.23055555555555554</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.32430555555555557</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.23472222222222219</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.20347222222222219</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.20416666666666669</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.20347222222222219</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.29930555555555555</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.21458333333333335</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="C17" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.35625000000000001</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.21666666666666667</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.20972222222222223</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.1451388888888889</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.26597222222222222</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.22569444444444445</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.30902777777777779</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.28263888888888888</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="9">
+        <v>4</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="10">
+        <v>5</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="10">
+        <v>5</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="10">
+        <v>5</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.23472222222222219</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10">
+        <v>5</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="H22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="10">
+        <v>5</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="10">
+        <v>5</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="10">
+        <v>5</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="10">
+        <v>5</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10">
+        <v>5</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.18819444444444444</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="4" t="s">
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="10">
+        <v>5</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="G28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="10">
+        <v>5</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10">
+        <v>5</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="10">
+        <v>5</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="10">
+        <v>5</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="10">
+        <v>5</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="10">
+        <v>5</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="10">
+        <v>5</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5">
+        <v>6</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="5">
+        <v>6</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="5">
+        <v>6</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.23055555555555554</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="5">
+        <v>6</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="5">
+        <v>6</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5">
+        <v>6</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.20347222222222219</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5">
+        <v>6</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="5">
+        <v>6</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2">
+        <v>6</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="5">
+        <v>6</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>6</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.1451388888888889</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2">
+        <v>6</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="2">
+        <v>6</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B52" s="5">
+        <v>6</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D52" s="3">
         <v>0.19722222222222222</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L52" s="4" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="53" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="14">
+        <v>7</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0.1986111111111111</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="9">
+        <v>7</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C55" s="16"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" tooltip="https://youtu.be/lsIF8Q6g6DQ" xr:uid="{FD1E582A-E5DD-47A5-9064-544DA26F919E}"/>
-    <hyperlink ref="B18" r:id="rId2" tooltip="https://youtu.be/O-eft-7HyUc" xr:uid="{53900F07-8542-48F5-B520-E1AAD27995D9}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{58982870-E9A7-4D2A-9849-495D9B07A1D0}"/>
-    <hyperlink ref="B16" r:id="rId4" xr:uid="{958ACE7C-F29E-4CCE-B2B0-822B40DA0BEE}"/>
-    <hyperlink ref="B15" r:id="rId5" xr:uid="{0100FC3B-2687-4108-AF79-0BDB2343F1F3}"/>
-    <hyperlink ref="B14" r:id="rId6" xr:uid="{81EEB065-E3E0-45A8-B3E5-D386C64DA5C6}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{930C4FE9-E876-4183-8B40-B1BEF8FD408F}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{344D9A4C-756D-4471-82FA-53FEA7EBF713}"/>
-    <hyperlink ref="B10" r:id="rId9" tooltip="https://www.youtube.com/watch?v=kO73rg0cM04" xr:uid="{5B337D60-E926-4622-934B-091DF62F8884}"/>
-    <hyperlink ref="B9" r:id="rId10" tooltip="https://youtu.be/Y83NfCbWQtU" xr:uid="{19CA4445-BF1E-4BC6-AB2E-47C48F215055}"/>
-    <hyperlink ref="B8" r:id="rId11" tooltip="https://youtu.be/hOtWvVnz9kM" xr:uid="{FEDCB8CD-E01F-489D-91B9-A4B01DB14725}"/>
-    <hyperlink ref="B7" r:id="rId12" tooltip="https://youtu.be/LSZALStj0Ow" xr:uid="{FBAFDE76-EE77-47C6-8897-36B0DA782D78}"/>
-    <hyperlink ref="B6" r:id="rId13" tooltip="https://youtu.be/A2kvmfkDbaA" xr:uid="{E935C37F-1164-45C9-950D-EED091A4E0D5}"/>
-    <hyperlink ref="B5" r:id="rId14" tooltip="https://youtu.be/ybsoGDeGbZ8" xr:uid="{19310CEF-3AD9-478F-9DE9-4DAF423AE119}"/>
-    <hyperlink ref="B4" r:id="rId15" tooltip="https://www.youtube.com/watch?v=pGR1GnnWUhI" xr:uid="{F63AD975-5B90-4359-B8E2-CA6D8B6AB7EF}"/>
-    <hyperlink ref="B3" r:id="rId16" tooltip="https://youtu.be/Hsa6P_GoGHU" xr:uid="{7DAB58A5-E776-4A8F-886E-932F3F3C9764}"/>
-    <hyperlink ref="B2" r:id="rId17" tooltip="https://www.youtube.com/watch?v=8SINKdR-urw&amp;ab_channel=yangi" xr:uid="{3BF015C4-64E8-4B67-BDC7-962EAA251725}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2348BE8-541C-4649-908F-5D8319596F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26CAB8D-990A-41E4-B39F-3FB5E6E69720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="162">
   <si>
     <t>Player</t>
   </si>
@@ -489,13 +489,46 @@
   </si>
   <si>
     <t>No Link</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V0FZxshxEKo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nAWLfNvUOYg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oe4ndNFRfxs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Y_bJ8kqotcI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4Ij25atUrr4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Yp-2DU052GU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WO4liFxuGFU</t>
+  </si>
+  <si>
+    <t>Ayato</t>
+  </si>
+  <si>
+    <t>Beidou</t>
+  </si>
+  <si>
+    <t>Yaoyao</t>
+  </si>
+  <si>
+    <t>Alhaitham</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +557,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -539,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -633,12 +672,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -652,25 +700,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,28 +721,37 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1008,7 +1059,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1016,16 +1067,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="15" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1036,7 +1087,7 @@
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1074,7 +1125,7 @@
       <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" t="s">
         <v>118</v>
       </c>
       <c r="D2" s="3">
@@ -1112,7 +1163,7 @@
       <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" t="s">
         <v>119</v>
       </c>
       <c r="D3" s="3">
@@ -1150,7 +1201,7 @@
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="3">
@@ -1188,7 +1239,7 @@
       <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" t="s">
         <v>121</v>
       </c>
       <c r="D5" s="3">
@@ -1223,10 +1274,10 @@
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" t="s">
         <v>122</v>
       </c>
       <c r="D6" s="3">
@@ -1261,10 +1312,10 @@
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" t="s">
         <v>123</v>
       </c>
       <c r="D7" s="3">
@@ -1299,10 +1350,10 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="3">
@@ -1337,10 +1388,10 @@
       <c r="A9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="3">
@@ -1375,10 +1426,10 @@
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="3">
@@ -1413,10 +1464,10 @@
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" t="s">
         <v>127</v>
       </c>
       <c r="D11" s="3">
@@ -1451,10 +1502,10 @@
       <c r="A12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" t="s">
         <v>128</v>
       </c>
       <c r="D12" s="3">
@@ -1489,10 +1540,10 @@
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" t="s">
         <v>129</v>
       </c>
       <c r="D13" s="3">
@@ -1527,10 +1578,10 @@
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" t="s">
         <v>130</v>
       </c>
       <c r="D14" s="3">
@@ -1565,10 +1616,10 @@
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" t="s">
         <v>131</v>
       </c>
       <c r="D15" s="3">
@@ -1603,10 +1654,10 @@
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="3">
@@ -1641,10 +1692,10 @@
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" t="s">
         <v>132</v>
       </c>
       <c r="D17" s="3">
@@ -1679,10 +1730,10 @@
       <c r="A18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D18" s="3">
@@ -1691,7 +1742,7 @@
       <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1717,10 +1768,10 @@
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="5">
         <v>5</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="3">
@@ -1755,10 +1806,10 @@
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="5">
         <v>5</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D20" s="3">
@@ -1793,10 +1844,10 @@
       <c r="A21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="14" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="3">
@@ -1831,10 +1882,10 @@
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="5">
         <v>5</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="14" t="s">
         <v>137</v>
       </c>
       <c r="D22" s="3">
@@ -1869,10 +1920,10 @@
       <c r="A23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="5">
         <v>5</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="14" t="s">
         <v>149</v>
       </c>
       <c r="D23" s="3">
@@ -1907,10 +1958,10 @@
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="5">
         <v>5</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D24" s="3">
@@ -1945,10 +1996,10 @@
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="5">
         <v>5</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="14" t="s">
         <v>139</v>
       </c>
       <c r="D25" s="3">
@@ -1983,10 +2034,10 @@
       <c r="A26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="5">
         <v>5</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D26" s="3">
@@ -2021,10 +2072,10 @@
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="5">
         <v>5</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D27" s="3">
@@ -2059,10 +2110,10 @@
       <c r="A28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="5">
         <v>5</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="14" t="s">
         <v>141</v>
       </c>
       <c r="D28" s="3">
@@ -2097,10 +2148,10 @@
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="5">
         <v>5</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D29" s="3">
@@ -2135,10 +2186,10 @@
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="5">
         <v>5</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D30" s="3">
@@ -2173,10 +2224,10 @@
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="5">
         <v>5</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="14" t="s">
         <v>144</v>
       </c>
       <c r="D31" s="3">
@@ -2211,10 +2262,10 @@
       <c r="A32" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="5">
         <v>5</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="14" t="s">
         <v>145</v>
       </c>
       <c r="D32" s="3">
@@ -2249,10 +2300,10 @@
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="5">
         <v>5</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="14" t="s">
         <v>146</v>
       </c>
       <c r="D33" s="3">
@@ -2287,10 +2338,10 @@
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="5">
         <v>5</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="14" t="s">
         <v>147</v>
       </c>
       <c r="D34" s="3">
@@ -2325,10 +2376,10 @@
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="5">
         <v>5</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D35" s="3">
@@ -2366,7 +2417,7 @@
       <c r="B36" s="5">
         <v>6</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" t="s">
         <v>87</v>
       </c>
       <c r="D36" s="3">
@@ -2404,7 +2455,7 @@
       <c r="B37" s="5">
         <v>6</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" t="s">
         <v>86</v>
       </c>
       <c r="D37" s="3">
@@ -2442,7 +2493,7 @@
       <c r="B38" s="5">
         <v>6</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" t="s">
         <v>85</v>
       </c>
       <c r="D38" s="3">
@@ -2480,7 +2531,7 @@
       <c r="B39" s="5">
         <v>6</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="3">
@@ -2518,7 +2569,7 @@
       <c r="B40" s="5">
         <v>6</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="3">
@@ -2556,7 +2607,7 @@
       <c r="B41" s="5">
         <v>6</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" t="s">
         <v>82</v>
       </c>
       <c r="D41" s="3">
@@ -2594,7 +2645,7 @@
       <c r="B42" s="5">
         <v>6</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" t="s">
         <v>81</v>
       </c>
       <c r="D42" s="3">
@@ -2632,7 +2683,7 @@
       <c r="B43" s="5">
         <v>6</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="3">
@@ -2670,7 +2721,7 @@
       <c r="B44" s="5">
         <v>6</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="3">
@@ -2708,7 +2759,7 @@
       <c r="B45" s="2">
         <v>6</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" t="s">
         <v>78</v>
       </c>
       <c r="D45" s="3">
@@ -2746,7 +2797,7 @@
       <c r="B46" s="5">
         <v>6</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" t="s">
         <v>71</v>
       </c>
       <c r="D46" s="3">
@@ -2784,7 +2835,7 @@
       <c r="B47" s="2">
         <v>6</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" t="s">
         <v>77</v>
       </c>
       <c r="D47" s="3">
@@ -2822,7 +2873,7 @@
       <c r="B48" s="2">
         <v>6</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" t="s">
         <v>76</v>
       </c>
       <c r="D48" s="3">
@@ -2860,7 +2911,7 @@
       <c r="B49" s="2">
         <v>6</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" t="s">
         <v>75</v>
       </c>
       <c r="D49" s="3">
@@ -2898,7 +2949,7 @@
       <c r="B50" s="2">
         <v>6</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="3">
@@ -2936,7 +2987,7 @@
       <c r="B51" s="2">
         <v>6</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" t="s">
         <v>73</v>
       </c>
       <c r="D51" s="3">
@@ -2974,7 +3025,7 @@
       <c r="B52" s="5">
         <v>6</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="3">
@@ -3006,40 +3057,40 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="10">
         <v>7</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="11">
         <v>0.1986111111111111</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J53" s="15" t="s">
+      <c r="J53" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="K53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L53" s="15" t="s">
+      <c r="L53" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3047,42 +3098,309 @@
       <c r="A54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="2">
         <v>7</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="3">
         <v>0.17916666666666667</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J54" s="15" t="s">
+      <c r="J54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K54" s="15" t="s">
+      <c r="K54" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L54" s="15" t="s">
+      <c r="L54" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C55" s="16"/>
+    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="17">
+        <v>8</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="19">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="17">
+        <v>8</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="17">
+        <v>8</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="19">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="17">
+        <v>8</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="17">
+        <v>8</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="17">
+        <v>8</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="19">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="17">
+        <v>8</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="19">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="18"/>
+      <c r="D62" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26CAB8D-990A-41E4-B39F-3FB5E6E69720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0206E1-0754-4889-AA03-63C5A9F2BF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="179">
   <si>
     <t>Player</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Heizou</t>
   </si>
   <si>
-    <t>Traveler</t>
-  </si>
-  <si>
     <t>Shenhe</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>Yae</t>
   </si>
   <si>
-    <t xml:space="preserve">Traveler </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Yelan</t>
   </si>
   <si>
@@ -522,6 +516,63 @@
   </si>
   <si>
     <t>Alhaitham</t>
+  </si>
+  <si>
+    <t>Kyeburr</t>
+  </si>
+  <si>
+    <t>Soran</t>
+  </si>
+  <si>
+    <t>Tails</t>
+  </si>
+  <si>
+    <t>YannyHealy</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=biGOQ9unw28</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D3esXt3lNX0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ngUBQrRAt6k</t>
+  </si>
+  <si>
+    <t>https://youtu.be/d9b521eWlBU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uH-valTWR2Q</t>
+  </si>
+  <si>
+    <t>https://youtu.be/900YXSAPOiY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GB4WNwfsBr4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/YMuHrdHTYuc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/efQMACnacV4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cTVKSQc2leM</t>
+  </si>
+  <si>
+    <t>TravelerDendro</t>
+  </si>
+  <si>
+    <t>TravelerAnemo</t>
+  </si>
+  <si>
+    <t>Noelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tartaglia </t>
   </si>
 </sst>
 </file>
@@ -686,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -733,24 +784,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1067,17 +1117,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="21"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1085,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>12</v>
@@ -1118,53 +1176,53 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3">
         <v>0.28541666666666665</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3">
         <v>0.14652777777777778</v>
@@ -1173,25 +1231,25 @@
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1202,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3">
         <v>0.23124999999999998</v>
@@ -1214,22 +1272,22 @@
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1240,34 +1298,34 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3">
         <v>0.23055555555555554</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1278,13 +1336,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="3">
         <v>0.23472222222222219</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>38</v>
@@ -1296,33 +1354,33 @@
         <v>23</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D7" s="3">
         <v>0.20416666666666669</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>38</v>
@@ -1334,16 +1392,16 @@
         <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1354,45 +1412,45 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="3">
         <v>0.28680555555555554</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="3">
         <v>0.23124999999999998</v>
@@ -1404,22 +1462,22 @@
         <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1430,13 +1488,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" s="3">
         <v>0.20347222222222219</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>38</v>
@@ -1448,16 +1506,16 @@
         <v>23</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1468,13 +1526,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3">
         <v>0.19513888888888889</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>38</v>
@@ -1486,54 +1544,54 @@
         <v>23</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" s="3">
         <v>0.32777777777777778</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1544,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" s="3">
         <v>0.26041666666666669</v>
@@ -1556,22 +1614,22 @@
         <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1582,13 +1640,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="3">
         <v>0.17847222222222223</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>38</v>
@@ -1600,45 +1658,45 @@
         <v>23</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" s="3">
         <v>0.15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>37</v>
@@ -1647,7 +1705,7 @@
         <v>35</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1658,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16" s="3">
         <v>0.28819444444444448</v>
@@ -1673,19 +1731,19 @@
         <v>27</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1696,7 +1754,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" s="3">
         <v>0.16597222222222222</v>
@@ -1705,10 +1763,10 @@
         <v>24</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>38</v>
@@ -1717,7 +1775,7 @@
         <v>28</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>34</v>
@@ -1728,13 +1786,13 @@
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="3">
         <v>0.34097222222222223</v>
@@ -1743,22 +1801,22 @@
         <v>30</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>31</v>
@@ -1772,28 +1830,28 @@
         <v>5</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="3">
         <v>0.27569444444444446</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>34</v>
@@ -1810,72 +1868,72 @@
         <v>5</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="3">
         <v>0.24166666666666667</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="5">
         <v>5</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="3">
         <v>0.23472222222222219</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1886,22 +1944,22 @@
         <v>5</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D22" s="3">
         <v>0.16041666666666668</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>24</v>
@@ -1910,7 +1968,7 @@
         <v>23</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>38</v>
@@ -1918,13 +1976,13 @@
     </row>
     <row r="23" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="5">
         <v>5</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D23" s="3">
         <v>0.30763888888888891</v>
@@ -1939,16 +1997,16 @@
         <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>31</v>
@@ -1962,19 +2020,19 @@
         <v>5</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D24" s="3">
         <v>0.26944444444444443</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>23</v>
@@ -1989,7 +2047,7 @@
         <v>27</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2000,7 +2058,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D25" s="3">
         <v>0.21666666666666667</v>
@@ -2012,57 +2070,57 @@
         <v>29</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" s="5">
         <v>5</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="3">
         <v>0.22777777777777777</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>39</v>
@@ -2076,25 +2134,25 @@
         <v>5</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D27" s="3">
         <v>0.18819444444444444</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>27</v>
@@ -2103,83 +2161,83 @@
         <v>38</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D28" s="3">
         <v>0.21736111111111112</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="5">
         <v>5</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D29" s="3">
         <v>0.15763888888888888</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2190,22 +2248,22 @@
         <v>5</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="3">
         <v>0.14652777777777778</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>24</v>
@@ -2214,10 +2272,10 @@
         <v>38</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2228,28 +2286,28 @@
         <v>5</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D31" s="3">
         <v>0.18888888888888888</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>35</v>
@@ -2260,28 +2318,28 @@
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" s="5">
         <v>5</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D32" s="3">
         <v>0.34791666666666665</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>29</v>
@@ -2304,22 +2362,22 @@
         <v>5</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D33" s="3">
         <v>0.2986111111111111</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>29</v>
@@ -2342,22 +2400,22 @@
         <v>5</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D34" s="3">
         <v>0.29236111111111113</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>25</v>
@@ -2369,7 +2427,7 @@
         <v>32</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2380,22 +2438,22 @@
         <v>5</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D35" s="3">
         <v>0.31805555555555554</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>29</v>
@@ -2418,7 +2476,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3">
         <v>0.15972222222222224</v>
@@ -2433,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>24</v>
@@ -2442,7 +2500,7 @@
         <v>30</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>38</v>
@@ -2456,28 +2514,28 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="3">
         <v>0.29305555555555557</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>32</v>
@@ -2494,7 +2552,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" s="3">
         <v>0.23055555555555554</v>
@@ -2503,13 +2561,13 @@
         <v>22</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>26</v>
@@ -2532,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39" s="3">
         <v>0.32430555555555557</v>
@@ -2541,13 +2599,13 @@
         <v>22</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>27</v>
@@ -2556,13 +2614,13 @@
         <v>33</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -2570,16 +2628,16 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D40" s="3">
         <v>0.25</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>37</v>
@@ -2597,10 +2655,10 @@
         <v>27</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -2608,25 +2666,25 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" s="3">
         <v>0.20347222222222219</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>35</v>
@@ -2646,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D42" s="3">
         <v>0.29930555555555555</v>
@@ -2655,10 +2713,10 @@
         <v>22</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>30</v>
@@ -2667,10 +2725,10 @@
         <v>27</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>39</v>
@@ -2684,31 +2742,31 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="3">
         <v>0.21458333333333335</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>31</v>
@@ -2722,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D44" s="3">
         <v>0.35625000000000001</v>
@@ -2731,10 +2789,10 @@
         <v>26</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>23</v>
@@ -2746,13 +2804,13 @@
         <v>35</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -2760,31 +2818,31 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D45" s="3">
         <v>0.21666666666666667</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="I45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>31</v>
@@ -2798,34 +2856,34 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D46" s="3">
         <v>0.20972222222222223</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>23</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2836,7 +2894,7 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D47" s="3">
         <v>0.1451388888888889</v>
@@ -2851,7 +2909,7 @@
         <v>23</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>24</v>
@@ -2860,7 +2918,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>38</v>
@@ -2874,7 +2932,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D48" s="3">
         <v>0.26597222222222222</v>
@@ -2883,13 +2941,13 @@
         <v>40</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>29</v>
@@ -2898,7 +2956,7 @@
         <v>35</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>39</v>
@@ -2912,7 +2970,7 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D49" s="3">
         <v>0.22569444444444445</v>
@@ -2921,7 +2979,7 @@
         <v>25</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>31</v>
@@ -2930,16 +2988,16 @@
         <v>32</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="L49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2950,22 +3008,22 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D50" s="3">
         <v>0.30902777777777779</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>29</v>
@@ -2974,7 +3032,7 @@
         <v>35</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>39</v>
@@ -2988,28 +3046,28 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D51" s="3">
         <v>0.28263888888888888</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>38</v>
@@ -3018,7 +3076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -3026,7 +3084,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D52" s="3">
         <v>0.19722222222222222</v>
@@ -3035,51 +3093,51 @@
         <v>26</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B53" s="10">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D53" s="11">
         <v>0.1986111111111111</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>29</v>
@@ -3088,36 +3146,36 @@
         <v>35</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D54" s="3">
         <v>0.17916666666666667</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>29</v>
@@ -3126,281 +3184,660 @@
         <v>35</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="17">
+      <c r="A55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="16">
         <v>8</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="17">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="16">
+        <v>8</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="16">
+        <v>8</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="19">
-        <v>0.24374999999999999</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55" s="16" t="s">
+      <c r="D57" s="17">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="J57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="16">
+        <v>8</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="G58" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="16">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="17">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I55" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J55" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L55" s="16" t="s">
+      <c r="K59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="16">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="17">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="16">
+        <v>8</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="17">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="5">
+        <v>8</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="17">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="5">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="5">
+        <v>8</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="5">
+        <v>8</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="5">
+        <v>8</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="20">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="5">
+        <v>8</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="17">
+      <c r="I67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="5">
         <v>8</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56" s="19">
-        <v>0.28263888888888888</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="16" t="s">
+      <c r="C68" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" s="20">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G56" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H56" s="16" t="s">
+      <c r="G68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="5">
+        <v>8</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" s="20">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="I69" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="5">
+        <v>8</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" s="20">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="5">
+        <v>8</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" s="20">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J56" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L56" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="17">
-        <v>8</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="19">
-        <v>0.25486111111111109</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J57" s="16" t="s">
+      <c r="I71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K57" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L57" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="17">
-        <v>8</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="19">
-        <v>0.27916666666666667</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="K58" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="L58" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="17">
-        <v>8</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="19">
-        <v>0.3215277777777778</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="17">
-        <v>8</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="19">
-        <v>0.19513888888888889</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K60" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="L60" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="17">
-        <v>8</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="19">
-        <v>0.18888888888888888</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I61" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J61" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K61" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="L61" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="18"/>
-      <c r="D62" s="15"/>
+      <c r="L71" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0206E1-0754-4889-AA03-63C5A9F2BF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A60D2A-2D79-49A0-9EFF-790A4EC11B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="189">
   <si>
     <t>Player</t>
   </si>
@@ -573,6 +573,36 @@
   </si>
   <si>
     <t xml:space="preserve">Tartaglia </t>
+  </si>
+  <si>
+    <t>Babbid</t>
+  </si>
+  <si>
+    <t>https://youtu.be/VE8GqanH9uk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RGACNXlPVV4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m-G2QyHEHI0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ptLnK9fruPY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/JOrDXgfXy1A</t>
+  </si>
+  <si>
+    <t>TravelerElectro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jlIcTqwAfL0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bT4syzWdqqA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yilIU66NTQY</t>
   </si>
 </sst>
 </file>
@@ -737,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -801,6 +831,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1117,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,7 +1174,7 @@
     <col min="12" max="12" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
@@ -2050,7 +2086,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -3837,7 +3873,308 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="5"/>
+      <c r="A72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="5">
+        <v>8</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="20">
+        <v>0.22847222222222222</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="5">
+        <v>8</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="20">
+        <v>0.18819444444444444</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="5">
+        <v>8</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="20">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="5">
+        <v>8</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="20">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="5">
+        <v>8</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="20">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="5">
+        <v>9</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="20">
+        <v>0.14444444444444446</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K77" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="L77" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="5">
+        <v>9</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="20">
+        <v>0.22152777777777777</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K78" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L78" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="5">
+        <v>9</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="20">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K79" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="L79" s="22" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A60D2A-2D79-49A0-9EFF-790A4EC11B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E0B9A-4A6B-4751-B14F-190FC1D65188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -767,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -831,12 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1155,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3641,7 +3635,7 @@
         <v>157</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -4063,7 +4057,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B77" s="5">
@@ -4075,33 +4069,33 @@
       <c r="D77" s="20">
         <v>0.14444444444444446</v>
       </c>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="F77" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G77" s="22" t="s">
+      <c r="G77" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H77" s="22" t="s">
+      <c r="H77" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I77" s="22" t="s">
+      <c r="I77" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J77" s="22" t="s">
+      <c r="J77" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K77" s="22" t="s">
+      <c r="K77" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L77" s="22" t="s">
+      <c r="L77" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="5">
@@ -4113,33 +4107,33 @@
       <c r="D78" s="20">
         <v>0.22152777777777777</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G78" s="22" t="s">
+      <c r="G78" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H78" s="22" t="s">
+      <c r="H78" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I78" s="22" t="s">
+      <c r="I78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J78" s="22" t="s">
+      <c r="J78" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K78" s="22" t="s">
+      <c r="K78" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L78" s="22" t="s">
+      <c r="L78" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B79" s="5">
@@ -4151,28 +4145,28 @@
       <c r="D79" s="20">
         <v>0.13958333333333334</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G79" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H79" s="22" t="s">
+      <c r="H79" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I79" s="22" t="s">
+      <c r="I79" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J79" s="22" t="s">
+      <c r="J79" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K79" s="22" t="s">
+      <c r="K79" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L79" s="22" t="s">
+      <c r="L79" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E0B9A-4A6B-4751-B14F-190FC1D65188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA7E22D-B97E-4ED3-B77E-6FBA0005EF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="195">
   <si>
     <t>Player</t>
   </si>
@@ -603,6 +603,24 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=yilIU66NTQY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MdXiEzR1jPc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vkK-e_3bsdA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/VYkFtBW98dk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/7bufkQURXws</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fJEhZk7LCBs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/43lz1jxkiAo</t>
   </si>
 </sst>
 </file>
@@ -659,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -742,14 +760,21 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,9 +782,37 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -767,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -796,12 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -814,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -831,6 +878,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1147,17 +1222,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="21"/>
+    <col min="3" max="3" width="31.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="19"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="17.77734375" customWidth="1"/>
@@ -1175,7 +1250,7 @@
       <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1745,7 +1820,7 @@
       <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D16" s="3">
@@ -1821,7 +1896,7 @@
       <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="3">
@@ -1859,7 +1934,7 @@
       <c r="B19" s="5">
         <v>5</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="3">
@@ -1897,7 +1972,7 @@
       <c r="B20" s="5">
         <v>5</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="3">
@@ -1935,7 +2010,7 @@
       <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="3">
@@ -1973,7 +2048,7 @@
       <c r="B22" s="5">
         <v>5</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="3">
@@ -2011,7 +2086,7 @@
       <c r="B23" s="5">
         <v>5</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>147</v>
       </c>
       <c r="D23" s="3">
@@ -2049,7 +2124,7 @@
       <c r="B24" s="5">
         <v>5</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D24" s="3">
@@ -2087,7 +2162,7 @@
       <c r="B25" s="5">
         <v>5</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D25" s="3">
@@ -2125,7 +2200,7 @@
       <c r="B26" s="5">
         <v>5</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>148</v>
       </c>
       <c r="D26" s="3">
@@ -2163,7 +2238,7 @@
       <c r="B27" s="5">
         <v>5</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>138</v>
       </c>
       <c r="D27" s="3">
@@ -2201,7 +2276,7 @@
       <c r="B28" s="5">
         <v>5</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D28" s="3">
@@ -2239,7 +2314,7 @@
       <c r="B29" s="5">
         <v>5</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>140</v>
       </c>
       <c r="D29" s="3">
@@ -2277,7 +2352,7 @@
       <c r="B30" s="5">
         <v>5</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>141</v>
       </c>
       <c r="D30" s="3">
@@ -2315,7 +2390,7 @@
       <c r="B31" s="5">
         <v>5</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>142</v>
       </c>
       <c r="D31" s="3">
@@ -2353,7 +2428,7 @@
       <c r="B32" s="5">
         <v>5</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>143</v>
       </c>
       <c r="D32" s="3">
@@ -2391,7 +2466,7 @@
       <c r="B33" s="5">
         <v>5</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="3">
@@ -2429,7 +2504,7 @@
       <c r="B34" s="5">
         <v>5</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>145</v>
       </c>
       <c r="D34" s="3">
@@ -2467,7 +2542,7 @@
       <c r="B35" s="5">
         <v>5</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D35" s="3">
@@ -3107,25 +3182,25 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="28">
         <v>6</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="29">
         <v>0.19722222222222222</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="27" t="s">
         <v>63</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -3144,26 +3219,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="25">
         <v>7</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="26">
         <v>0.1986111111111111</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="25" t="s">
         <v>49</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -3183,25 +3258,25 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="22">
         <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="23">
         <v>0.17916666666666667</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="22" t="s">
         <v>49</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -3224,16 +3299,16 @@
       <c r="A55" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="14">
         <v>8</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="15">
         <v>0.24374999999999999</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="17" t="s">
         <v>96</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -3262,16 +3337,16 @@
       <c r="A56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="14">
         <v>8</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="15">
         <v>0.28263888888888888</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="17" t="s">
         <v>110</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -3300,16 +3375,16 @@
       <c r="A57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="14">
         <v>8</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="15">
         <v>0.25486111111111109</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -3338,16 +3413,16 @@
       <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="14">
         <v>8</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="15">
         <v>0.27916666666666667</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -3376,16 +3451,16 @@
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="14">
         <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>153</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="15">
         <v>0.3215277777777778</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -3414,16 +3489,16 @@
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="14">
         <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="15">
         <v>0.19513888888888889</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -3452,16 +3527,16 @@
       <c r="A61" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="14">
         <v>8</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="15">
         <v>0.18888888888888888</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -3493,13 +3568,13 @@
       <c r="B62" s="5">
         <v>8</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="15">
         <v>0.17083333333333331</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="17" t="s">
         <v>94</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -3534,10 +3609,10 @@
       <c r="C63" t="s">
         <v>166</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="18">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="17" t="s">
         <v>94</v>
       </c>
       <c r="F63" s="4" t="s">
@@ -3569,13 +3644,13 @@
       <c r="B64" s="5">
         <v>8</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="18">
         <v>0.24305555555555555</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -3607,13 +3682,13 @@
       <c r="B65" s="5">
         <v>8</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="18">
         <v>0.22222222222222221</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="17" t="s">
         <v>96</v>
       </c>
       <c r="F65" s="4" t="s">
@@ -3645,13 +3720,13 @@
       <c r="B66" s="5">
         <v>8</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="18">
         <v>0.22083333333333333</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="17" t="s">
         <v>178</v>
       </c>
       <c r="F66" s="4" t="s">
@@ -3683,13 +3758,13 @@
       <c r="B67" s="5">
         <v>8</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="18">
         <v>0.21111111111111111</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -3721,13 +3796,13 @@
       <c r="B68" s="5">
         <v>8</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="18">
         <v>0.28888888888888892</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="17" t="s">
         <v>110</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -3759,13 +3834,13 @@
       <c r="B69" s="5">
         <v>8</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="18">
         <v>0.34097222222222223</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="17" t="s">
         <v>67</v>
       </c>
       <c r="F69" s="4" t="s">
@@ -3797,10 +3872,10 @@
       <c r="B70" s="5">
         <v>8</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="18">
         <v>0.30486111111111108</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -3835,13 +3910,13 @@
       <c r="B71" s="5">
         <v>8</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="18">
         <v>0.30277777777777776</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F71" s="4" t="s">
@@ -3873,13 +3948,13 @@
       <c r="B72" s="5">
         <v>8</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="18">
         <v>0.22847222222222222</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -3911,13 +3986,13 @@
       <c r="B73" s="5">
         <v>8</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="18">
         <v>0.18819444444444444</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F73" s="4" t="s">
@@ -3949,13 +4024,13 @@
       <c r="B74" s="5">
         <v>8</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D74" s="20">
+      <c r="D74" s="18">
         <v>0.27847222222222223</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -3987,13 +4062,13 @@
       <c r="B75" s="5">
         <v>8</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="18">
         <v>0.14166666666666666</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F75" s="4" t="s">
@@ -4025,13 +4100,13 @@
       <c r="B76" s="5">
         <v>8</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D76" s="20">
+      <c r="D76" s="18">
         <v>0.23333333333333331</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F76" s="4" t="s">
@@ -4063,13 +4138,13 @@
       <c r="B77" s="5">
         <v>9</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="18">
         <v>0.14444444444444446</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F77" s="4" t="s">
@@ -4101,13 +4176,13 @@
       <c r="B78" s="5">
         <v>9</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="18">
         <v>0.22152777777777777</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -4139,13 +4214,13 @@
       <c r="B79" s="5">
         <v>9</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="18">
         <v>0.13958333333333334</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="17" t="s">
         <v>159</v>
       </c>
       <c r="F79" s="4" t="s">
@@ -4168,6 +4243,234 @@
       </c>
       <c r="L79" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="5">
+        <v>9</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" s="18">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K80" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="L80" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="5">
+        <v>9</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="18">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I81" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J81" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K81" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L81" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="5">
+        <v>9</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" s="18">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J82" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K82" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L82" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="5">
+        <v>9</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" s="18">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I83" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J83" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K83" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L83" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="5">
+        <v>9</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" s="18">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J84" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K84" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L84" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="5">
+        <v>9</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="18">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K85" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L85" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA7E22D-B97E-4ED3-B77E-6FBA0005EF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E078DA1B-84EA-4D10-8405-FADD30EB72CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="198">
   <si>
     <t>Player</t>
   </si>
@@ -621,6 +621,15 @@
   </si>
   <si>
     <t>https://youtu.be/43lz1jxkiAo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Odi-c1HQvHo</t>
+  </si>
+  <si>
+    <t>Dehya</t>
+  </si>
+  <si>
+    <t>Kaeya</t>
   </si>
 </sst>
 </file>
@@ -879,12 +888,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -905,6 +908,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1222,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3182,25 +3191,25 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="26">
         <v>6</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="27">
         <v>0.19722222222222222</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="25" t="s">
         <v>63</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -3220,25 +3229,25 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="23">
         <v>7</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="24">
         <v>0.1986111111111111</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="23" t="s">
         <v>49</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -3258,25 +3267,25 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="20">
         <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="21">
         <v>0.17916666666666667</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="20" t="s">
         <v>49</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -4246,7 +4255,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B80" s="5">
@@ -4258,33 +4267,33 @@
       <c r="D80" s="18">
         <v>0.21597222222222223</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E80" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F80" s="20" t="s">
+      <c r="F80" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G80" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H80" s="20" t="s">
+      <c r="H80" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I80" s="20" t="s">
+      <c r="I80" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J80" s="20" t="s">
+      <c r="J80" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K80" s="20" t="s">
+      <c r="K80" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L80" s="20" t="s">
+      <c r="L80" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="5">
@@ -4296,33 +4305,33 @@
       <c r="D81" s="18">
         <v>0.19652777777777777</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E81" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F81" s="20" t="s">
+      <c r="F81" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H81" s="20" t="s">
+      <c r="H81" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I81" s="20" t="s">
+      <c r="I81" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J81" s="20" t="s">
+      <c r="J81" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K81" s="20" t="s">
+      <c r="K81" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L81" s="20" t="s">
+      <c r="L81" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B82" s="5">
@@ -4334,33 +4343,33 @@
       <c r="D82" s="18">
         <v>0.17847222222222223</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="E82" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F82" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G82" s="20" t="s">
+      <c r="G82" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H82" s="20" t="s">
+      <c r="H82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I82" s="20" t="s">
+      <c r="I82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J82" s="20" t="s">
+      <c r="J82" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K82" s="20" t="s">
+      <c r="K82" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L82" s="20" t="s">
+      <c r="L82" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B83" s="5">
@@ -4372,33 +4381,33 @@
       <c r="D83" s="18">
         <v>0.30138888888888887</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G83" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="20" t="s">
+      <c r="H83" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="I83" s="20" t="s">
+      <c r="I83" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J83" s="20" t="s">
+      <c r="J83" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K83" s="20" t="s">
+      <c r="K83" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L83" s="20" t="s">
+      <c r="L83" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B84" s="5">
@@ -4410,33 +4419,33 @@
       <c r="D84" s="18">
         <v>0.19513888888888889</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="G84" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H84" s="20" t="s">
+      <c r="H84" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I84" s="20" t="s">
+      <c r="I84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J84" s="20" t="s">
+      <c r="J84" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K84" s="20" t="s">
+      <c r="K84" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L84" s="20" t="s">
+      <c r="L84" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="5">
@@ -4448,29 +4457,67 @@
       <c r="D85" s="18">
         <v>0.21388888888888891</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="E85" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="20" t="s">
+      <c r="F85" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G85" s="20" t="s">
+      <c r="G85" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H85" s="20" t="s">
+      <c r="H85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I85" s="20" t="s">
+      <c r="I85" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J85" s="20" t="s">
+      <c r="J85" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K85" s="20" t="s">
+      <c r="K85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L85" s="20" t="s">
+      <c r="L85" s="4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="5">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="18">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="J86" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K86" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L86" s="28" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E078DA1B-84EA-4D10-8405-FADD30EB72CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B52058-3B6D-42C4-9FC5-525F559A38D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="202">
   <si>
     <t>Player</t>
   </si>
@@ -630,6 +630,18 @@
   </si>
   <si>
     <t>Kaeya</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d5_vxtrOUg8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z4hsqVwV308</t>
+  </si>
+  <si>
+    <t>https://youtu.be/VIh3RUIfBOI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MDbqjALh8Po</t>
   </si>
 </sst>
 </file>
@@ -829,7 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -910,9 +922,13 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1231,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4483,7 +4499,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B86" s="5">
@@ -4495,29 +4511,181 @@
       <c r="D86" s="18">
         <v>0.15902777777777777</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F86" s="28" t="s">
+      <c r="F86" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G86" s="28" t="s">
+      <c r="G86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="28" t="s">
+      <c r="H86" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I86" s="28" t="s">
+      <c r="I86" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J86" s="28" t="s">
+      <c r="J86" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K86" s="28" t="s">
+      <c r="K86" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L86" s="28" t="s">
+      <c r="L86" s="4" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="5">
+        <v>10</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" s="18">
+        <v>0.23680555555555557</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I87" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J87" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L87" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="28">
+        <v>10</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="18">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="I88" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J88" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L88" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="28">
+        <v>10</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" s="18">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="K89" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L89" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="28">
+        <v>10</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="18">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I90" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J90" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="K90" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L90" s="29" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B52058-3B6D-42C4-9FC5-525F559A38D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F04CB3-128F-483A-9627-779623CB3338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
+    <workbookView xWindow="7692" yWindow="5724" windowWidth="12960" windowHeight="5712" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="210">
   <si>
     <t>Player</t>
   </si>
@@ -642,6 +642,30 @@
   </si>
   <si>
     <t>https://youtu.be/MDbqjALh8Po</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6lTS8CS9QRo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DtxojCDkxDQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RGUOCPaOwuw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hu8KD1tJWM0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XyjIfqIHfBI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/n9y3B1TIT14</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n6iSEXLv5NM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehya </t>
   </si>
 </sst>
 </file>
@@ -922,14 +946,14 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1247,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" topLeftCell="G94" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4537,86 +4561,86 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B87" s="5">
         <v>10</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" t="s">
         <v>198</v>
       </c>
       <c r="D87" s="18">
         <v>0.23680555555555557</v>
       </c>
-      <c r="E87" s="31" t="s">
+      <c r="E87" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="F87" s="29" t="s">
+      <c r="F87" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G87" s="29" t="s">
+      <c r="G87" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H87" s="29" t="s">
+      <c r="H87" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I87" s="29" t="s">
+      <c r="I87" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J87" s="29" t="s">
+      <c r="J87" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K87" s="29" t="s">
+      <c r="K87" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L87" s="29" t="s">
+      <c r="L87" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="28">
+      <c r="B88" s="5">
         <v>10</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" t="s">
         <v>199</v>
       </c>
       <c r="D88" s="18">
         <v>0.19513888888888889</v>
       </c>
-      <c r="E88" s="31" t="s">
+      <c r="E88" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="F88" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H88" s="29" t="s">
+      <c r="H88" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="I88" s="29" t="s">
+      <c r="I88" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J88" s="29" t="s">
+      <c r="J88" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K88" s="29" t="s">
+      <c r="K88" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L88" s="29" t="s">
+      <c r="L88" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="28">
+      <c r="B89" s="5">
         <v>10</v>
       </c>
       <c r="C89" s="13" t="s">
@@ -4625,36 +4649,36 @@
       <c r="D89" s="18">
         <v>0.27569444444444446</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F89" s="29" t="s">
+      <c r="F89" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G89" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="29" t="s">
+      <c r="H89" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I89" s="29" t="s">
+      <c r="I89" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J89" s="29" t="s">
+      <c r="J89" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K89" s="29" t="s">
+      <c r="K89" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L89" s="29" t="s">
+      <c r="L89" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="28">
+      <c r="B90" s="5">
         <v>10</v>
       </c>
       <c r="C90" s="13" t="s">
@@ -4663,28 +4687,294 @@
       <c r="D90" s="18">
         <v>0.20902777777777778</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E90" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F90" s="29" t="s">
+      <c r="F90" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H90" s="29" t="s">
+      <c r="H90" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I90" s="29" t="s">
+      <c r="I90" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J90" s="29" t="s">
+      <c r="J90" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K90" s="29" t="s">
+      <c r="K90" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L90" s="29" t="s">
+      <c r="L90" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="5">
+        <v>10</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" s="18">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H91" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="J91" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K91" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L91" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="5">
+        <v>10</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" s="18">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H92" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="J92" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L92" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="5">
+        <v>10</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" s="18">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J93" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K93" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L93" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="5">
+        <v>10</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="18">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="I94" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J94" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K94" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="L94" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="5">
+        <v>10</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" s="18">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I95" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K95" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="L95" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="5">
+        <v>10</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" s="18">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G96" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="J96" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K96" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L96" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="5">
+        <v>10</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" s="18">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H97" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="I97" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J97" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K97" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="L97" s="31" t="s">
         <v>46</v>
       </c>
     </row>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F04CB3-128F-483A-9627-779623CB3338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196E8DF-C32E-49D6-82D3-DC356200D4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7692" yWindow="5724" windowWidth="12960" windowHeight="5712" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="211">
   <si>
     <t>Player</t>
   </si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dehya </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5Yc0m8I4NTI</t>
   </si>
 </sst>
 </file>
@@ -946,10 +949,10 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1271,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G94" workbookViewId="0">
-      <selection activeCell="L96" sqref="L96"/>
+    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4713,45 +4716,45 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B91" s="5">
         <v>10</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" t="s">
         <v>202</v>
       </c>
       <c r="D91" s="18">
         <v>0.17986111111111111</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F91" s="28" t="s">
+      <c r="F91" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G91" s="28" t="s">
+      <c r="G91" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H91" s="28" t="s">
+      <c r="H91" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I91" s="28" t="s">
+      <c r="I91" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J91" s="28" t="s">
+      <c r="J91" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="28" t="s">
+      <c r="K91" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L91" s="28" t="s">
+      <c r="L91" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B92" s="5">
@@ -4763,33 +4766,33 @@
       <c r="D92" s="18">
         <v>0.23750000000000002</v>
       </c>
-      <c r="E92" s="30" t="s">
+      <c r="E92" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F92" s="28" t="s">
+      <c r="F92" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G92" s="28" t="s">
+      <c r="G92" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H92" s="28" t="s">
+      <c r="H92" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I92" s="28" t="s">
+      <c r="I92" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J92" s="28" t="s">
+      <c r="J92" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K92" s="28" t="s">
+      <c r="K92" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L92" s="28" t="s">
+      <c r="L92" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="5">
@@ -4801,71 +4804,71 @@
       <c r="D93" s="18">
         <v>0.26805555555555555</v>
       </c>
-      <c r="E93" s="30" t="s">
+      <c r="E93" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F93" s="28" t="s">
+      <c r="F93" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G93" s="28" t="s">
+      <c r="G93" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H93" s="28" t="s">
+      <c r="H93" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I93" s="28" t="s">
+      <c r="I93" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J93" s="28" t="s">
+      <c r="J93" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K93" s="28" t="s">
+      <c r="K93" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L93" s="28" t="s">
+      <c r="L93" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="5">
         <v>10</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" t="s">
         <v>205</v>
       </c>
       <c r="D94" s="18">
         <v>0.16597222222222222</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E94" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F94" s="28" t="s">
+      <c r="F94" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G94" s="28" t="s">
+      <c r="G94" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H94" s="28" t="s">
+      <c r="H94" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I94" s="31" t="s">
+      <c r="I94" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J94" s="31" t="s">
+      <c r="J94" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K94" s="31" t="s">
+      <c r="K94" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="L94" s="31" t="s">
+      <c r="L94" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B95" s="5">
@@ -4877,33 +4880,33 @@
       <c r="D95" s="18">
         <v>0.17916666666666667</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="E95" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F95" s="28" t="s">
+      <c r="F95" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G95" s="28" t="s">
+      <c r="G95" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H95" s="28" t="s">
+      <c r="H95" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I95" s="31" t="s">
+      <c r="I95" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J95" s="31" t="s">
+      <c r="J95" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K95" s="31" t="s">
+      <c r="K95" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L95" s="31" t="s">
+      <c r="L95" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B96" s="5">
@@ -4915,67 +4918,105 @@
       <c r="D96" s="18">
         <v>0.25069444444444444</v>
       </c>
-      <c r="E96" s="30" t="s">
+      <c r="E96" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F96" s="28" t="s">
+      <c r="F96" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G96" s="28" t="s">
+      <c r="G96" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H96" s="28" t="s">
+      <c r="H96" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I96" s="31" t="s">
+      <c r="I96" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J96" s="31" t="s">
+      <c r="J96" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K96" s="31" t="s">
+      <c r="K96" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L96" s="31" t="s">
+      <c r="L96" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B97" s="5">
         <v>10</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" t="s">
         <v>208</v>
       </c>
       <c r="D97" s="18">
         <v>0.15347222222222223</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E97" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="28" t="s">
+      <c r="F97" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G97" s="28" t="s">
+      <c r="G97" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H97" s="28" t="s">
+      <c r="H97" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I97" s="31" t="s">
+      <c r="I97" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J97" s="31" t="s">
+      <c r="J97" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K97" s="31" t="s">
+      <c r="K97" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="L97" s="31" t="s">
+      <c r="L97" s="5" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="5">
+        <v>10</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" s="18">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H98" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="J98" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K98" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L98" s="31" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196E8DF-C32E-49D6-82D3-DC356200D4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0D0945-1D12-480C-86D1-0C44D195C361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="221">
   <si>
     <t>Player</t>
   </si>
@@ -669,6 +669,36 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=5Yc0m8I4NTI</t>
+  </si>
+  <si>
+    <t>Kirara</t>
+  </si>
+  <si>
+    <t>Pneuma</t>
+  </si>
+  <si>
+    <t>Mika</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Uq1My9uwTVU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GHQb1hkl_SY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XUTD5azkIgQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fD0_bAB4i-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/UYg76TbLkK0 </t>
+  </si>
+  <si>
+    <t>https://youtu.be/kFNd8W-57jU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/nK79AiNT0rI </t>
   </si>
 </sst>
 </file>
@@ -868,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -949,11 +979,10 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="M98" sqref="M98"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4982,41 +5011,307 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B98" s="5">
         <v>10</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" t="s">
         <v>210</v>
       </c>
       <c r="D98" s="18">
         <v>0.22569444444444445</v>
       </c>
-      <c r="E98" s="30" t="s">
+      <c r="E98" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F98" s="29" t="s">
+      <c r="F98" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G98" s="29" t="s">
+      <c r="G98" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H98" s="29" t="s">
+      <c r="H98" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I98" s="31" t="s">
+      <c r="I98" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J98" s="31" t="s">
+      <c r="J98" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K98" s="31" t="s">
+      <c r="K98" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L98" s="31" t="s">
+      <c r="L98" s="5" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="5">
+        <v>13</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" s="18">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="5">
+        <v>13</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="18">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G100" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="5">
+        <v>13</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D101" s="18">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="5">
+        <v>13</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D102" s="18">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="E102" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H102" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103" s="5">
+        <v>13</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D103" s="18">
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H103" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="30">
+        <v>13</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D104" s="18">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="30">
+        <v>13</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" s="18">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G105" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0D0945-1D12-480C-86D1-0C44D195C361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D0211-9AB0-4363-A020-10DCAA7942DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="232">
   <si>
     <t>Player</t>
   </si>
@@ -699,6 +699,39 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/nK79AiNT0rI </t>
+  </si>
+  <si>
+    <t>Juslin</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MZBcSgAIuhY</t>
+  </si>
+  <si>
+    <t>Yuenn</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RFPCq2sNYm4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XE4jSi3djzA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HSlS5HOitO0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/97ov6tiQYfA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Dsccb4tic3g</t>
+  </si>
+  <si>
+    <t>https://youtu.be/AxVCiy03OOg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/nREJpgWOAtY</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -898,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -979,14 +1012,17 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1303,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L113" sqref="L113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5049,7 +5085,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B99" s="5">
@@ -5061,16 +5097,16 @@
       <c r="D99" s="18">
         <v>0.23958333333333334</v>
       </c>
-      <c r="E99" s="28" t="s">
+      <c r="E99" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="29" t="s">
+      <c r="F99" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G99" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H99" s="29" t="s">
+      <c r="H99" s="4" t="s">
         <v>175</v>
       </c>
       <c r="I99" s="5" t="s">
@@ -5087,7 +5123,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B100" s="5">
@@ -5099,16 +5135,16 @@
       <c r="D100" s="18">
         <v>0.15902777777777777</v>
       </c>
-      <c r="E100" s="28" t="s">
+      <c r="E100" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F100" s="29" t="s">
+      <c r="F100" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G100" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H100" s="29" t="s">
+      <c r="H100" s="4" t="s">
         <v>211</v>
       </c>
       <c r="I100" s="5" t="s">
@@ -5125,7 +5161,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="29" t="s">
+      <c r="A101" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B101" s="5">
@@ -5137,16 +5173,16 @@
       <c r="D101" s="18">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="E101" s="28" t="s">
+      <c r="E101" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F101" s="29" t="s">
+      <c r="F101" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G101" s="29" t="s">
+      <c r="G101" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H101" s="29" t="s">
+      <c r="H101" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I101" s="5" t="s">
@@ -5163,7 +5199,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B102" s="5">
@@ -5175,16 +5211,16 @@
       <c r="D102" s="18">
         <v>0.19305555555555554</v>
       </c>
-      <c r="E102" s="28" t="s">
+      <c r="E102" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F102" s="29" t="s">
+      <c r="F102" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G102" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H102" s="29" t="s">
+      <c r="H102" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I102" s="5" t="s">
@@ -5201,7 +5237,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B103" s="5">
@@ -5213,16 +5249,16 @@
       <c r="D103" s="18">
         <v>0.18541666666666667</v>
       </c>
-      <c r="E103" s="28" t="s">
+      <c r="E103" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F103" s="29" t="s">
+      <c r="F103" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G103" s="29" t="s">
+      <c r="G103" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H103" s="29" t="s">
+      <c r="H103" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I103" s="5" t="s">
@@ -5239,10 +5275,10 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B104" s="30">
+      <c r="B104" s="5">
         <v>13</v>
       </c>
       <c r="C104" s="13" t="s">
@@ -5251,16 +5287,16 @@
       <c r="D104" s="18">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E104" s="28" t="s">
+      <c r="E104" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F104" s="29" t="s">
+      <c r="F104" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G104" s="29" t="s">
+      <c r="G104" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H104" s="29" t="s">
+      <c r="H104" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I104" s="5" t="s">
@@ -5277,10 +5313,10 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="30">
+      <c r="B105" s="5">
         <v>13</v>
       </c>
       <c r="C105" s="13" t="s">
@@ -5289,16 +5325,16 @@
       <c r="D105" s="18">
         <v>0.17291666666666669</v>
       </c>
-      <c r="E105" s="28" t="s">
+      <c r="E105" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F105" s="29" t="s">
+      <c r="F105" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G105" s="29" t="s">
+      <c r="G105" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H105" s="29" t="s">
+      <c r="H105" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I105" s="5" t="s">
@@ -5312,6 +5348,310 @@
       </c>
       <c r="L105" s="5" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B106" s="5">
+        <v>13</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="18">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H106" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="5">
+        <v>13</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" s="18">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="E107" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G107" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="5">
+        <v>13</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108" s="18">
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="E108" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H108" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="5">
+        <v>14</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" s="18">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="30">
+        <v>14</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D110" s="18">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H110" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="30">
+        <v>14</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="18">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E111" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="30">
+        <v>14</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D112" s="18">
+        <v>0.15694444444444444</v>
+      </c>
+      <c r="E112" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H112" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="30">
+        <v>14</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D113" s="18">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="E113" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F113" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="H113" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D0211-9AB0-4363-A020-10DCAA7942DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A018845-7E0D-446B-AB6D-475EECF9D7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="234">
   <si>
     <t>Player</t>
   </si>
@@ -732,6 +732,12 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/Ebm1WFUsDzc?si=8bVwaIx6SIbKyMJu </t>
+  </si>
+  <si>
+    <t>Lynette</t>
   </si>
 </sst>
 </file>
@@ -931,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1017,12 +1023,6 @@
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1339,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="L113" sqref="L113"/>
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5351,7 +5351,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B106" s="5">
@@ -5363,16 +5363,16 @@
       <c r="D106" s="18">
         <v>0.16944444444444443</v>
       </c>
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F106" s="28" t="s">
+      <c r="F106" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G106" s="28" t="s">
+      <c r="G106" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H106" s="28" t="s">
+      <c r="H106" s="4" t="s">
         <v>211</v>
       </c>
       <c r="I106" s="5" t="s">
@@ -5389,7 +5389,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B107" s="5">
@@ -5401,16 +5401,16 @@
       <c r="D107" s="18">
         <v>0.28819444444444448</v>
       </c>
-      <c r="E107" s="29" t="s">
+      <c r="E107" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F107" s="28" t="s">
+      <c r="F107" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G107" s="28" t="s">
+      <c r="G107" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H107" s="28" t="s">
+      <c r="H107" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I107" s="5" t="s">
@@ -5427,7 +5427,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="5">
@@ -5439,16 +5439,16 @@
       <c r="D108" s="18">
         <v>0.18541666666666667</v>
       </c>
-      <c r="E108" s="29" t="s">
+      <c r="E108" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F108" s="28" t="s">
+      <c r="F108" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G108" s="28" t="s">
+      <c r="G108" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H108" s="28" t="s">
+      <c r="H108" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I108" s="5" t="s">
@@ -5465,7 +5465,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B109" s="5">
@@ -5477,16 +5477,16 @@
       <c r="D109" s="18">
         <v>0.2590277777777778</v>
       </c>
-      <c r="E109" s="29" t="s">
+      <c r="E109" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F109" s="28" t="s">
+      <c r="F109" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G109" s="28" t="s">
+      <c r="G109" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H109" s="28" t="s">
+      <c r="H109" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I109" s="5" t="s">
@@ -5503,28 +5503,28 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="28" t="s">
+      <c r="A110" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="30">
+      <c r="B110" s="5">
         <v>14</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="13" t="s">
         <v>227</v>
       </c>
       <c r="D110" s="18">
         <v>0.21458333333333335</v>
       </c>
-      <c r="E110" s="29" t="s">
+      <c r="E110" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F110" s="28" t="s">
+      <c r="F110" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G110" s="28" t="s">
+      <c r="G110" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H110" s="28" t="s">
+      <c r="H110" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I110" s="5" t="s">
@@ -5541,10 +5541,10 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="28" t="s">
+      <c r="A111" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B111" s="30">
+      <c r="B111" s="5">
         <v>14</v>
       </c>
       <c r="C111" s="13" t="s">
@@ -5553,16 +5553,16 @@
       <c r="D111" s="18">
         <v>0.21527777777777779</v>
       </c>
-      <c r="E111" s="29" t="s">
+      <c r="E111" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F111" s="28" t="s">
+      <c r="F111" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G111" s="28" t="s">
+      <c r="G111" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H111" s="28" t="s">
+      <c r="H111" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I111" s="5" t="s">
@@ -5579,10 +5579,10 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B112" s="30">
+      <c r="B112" s="5">
         <v>14</v>
       </c>
       <c r="C112" s="13" t="s">
@@ -5591,16 +5591,16 @@
       <c r="D112" s="18">
         <v>0.15694444444444444</v>
       </c>
-      <c r="E112" s="29" t="s">
+      <c r="E112" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F112" s="28" t="s">
+      <c r="F112" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G112" s="28" t="s">
+      <c r="G112" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H112" s="28" t="s">
+      <c r="H112" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I112" s="5" t="s">
@@ -5617,10 +5617,10 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="28" t="s">
+      <c r="A113" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B113" s="30">
+      <c r="B113" s="5">
         <v>14</v>
       </c>
       <c r="C113" s="13" t="s">
@@ -5629,16 +5629,16 @@
       <c r="D113" s="18">
         <v>0.28680555555555554</v>
       </c>
-      <c r="E113" s="29" t="s">
+      <c r="E113" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F113" s="28" t="s">
+      <c r="F113" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G113" s="28" t="s">
+      <c r="G113" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H113" s="28" t="s">
+      <c r="H113" s="4" t="s">
         <v>231</v>
       </c>
       <c r="I113" s="5" t="s">
@@ -5652,6 +5652,44 @@
       </c>
       <c r="L113" s="5" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="5">
+        <v>15</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D114" s="18">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="I114" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J114" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L114" s="28" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A018845-7E0D-446B-AB6D-475EECF9D7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCB2557-8C5F-4787-A1CE-313FC43DF6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
+    <workbookView xWindow="-2196" yWindow="2604" windowWidth="12960" windowHeight="7848" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="251">
   <si>
     <t>Player</t>
   </si>
@@ -738,6 +738,57 @@
   </si>
   <si>
     <t>Lynette</t>
+  </si>
+  <si>
+    <t>Minishooo</t>
+  </si>
+  <si>
+    <t>Luno</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Bkxh6Qd6pbQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B1PcAzBC5x0&amp;ab_channel=Luno</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OmDtsfl7230</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gqpcjePQX8k</t>
+  </si>
+  <si>
+    <t>https://youtu.be/M_hQsU0UVes?si=vwqW0YIwrxqm1-ZH</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wJodLJsT6I8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/jVexaHmMpp4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c8t-Wd2GUYk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LyP5OlZNglM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/5HUeaQcWmco</t>
+  </si>
+  <si>
+    <t>https://youtu.be/nGMrfLdKCNw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/SxBny03u8Z8</t>
+  </si>
+  <si>
+    <t>Lyney</t>
+  </si>
+  <si>
+    <t>Hu Tao</t>
+  </si>
+  <si>
+    <t>Amber</t>
   </si>
 </sst>
 </file>
@@ -937,7 +988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1021,7 +1072,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1339,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" topLeftCell="H120" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5655,7 +5710,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="5">
@@ -5667,29 +5722,485 @@
       <c r="D114" s="18">
         <v>0.18958333333333333</v>
       </c>
-      <c r="E114" s="29" t="s">
+      <c r="E114" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F114" s="28" t="s">
+      <c r="F114" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G114" s="28" t="s">
+      <c r="G114" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H114" s="28" t="s">
+      <c r="H114" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I114" s="29" t="s">
+      <c r="I114" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J114" s="28" t="s">
+      <c r="J114" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K114" s="28" t="s">
+      <c r="K114" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L114" s="28" t="s">
+      <c r="L114" s="4" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B115" s="5">
+        <v>16</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="18">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H115" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I115" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J115" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K115" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="L115" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B116" s="5">
+        <v>16</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D116" s="18">
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F116" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J116" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K116" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L116" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="5">
+        <v>16</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D117" s="18">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G117" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H117" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I117" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J117" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K117" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="5">
+        <v>16</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D118" s="18">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F118" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G118" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H118" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I118" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J118" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K118" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L118" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="5">
+        <v>16</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D119" s="18">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H119" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I119" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J119" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K119" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L119" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" s="5">
+        <v>16</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D120" s="18">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F120" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H120" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I120" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J120" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K120" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="L120" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="5">
+        <v>16</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D121" s="18">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F121" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H121" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I121" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J121" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K121" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L121" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="5">
+        <v>16</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D122" s="18">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="E122" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F122" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G122" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H122" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="I122" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="J122" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K122" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L122" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="5">
+        <v>16</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" s="18">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="E123" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F123" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G123" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H123" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I123" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J123" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K123" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L123" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="5">
+        <v>16</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" s="18">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="E124" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G124" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="H124" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I124" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J124" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K124" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L124" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="5">
+        <v>16</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D125" s="18">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="E125" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F125" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G125" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H125" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I125" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J125" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K125" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L125" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" s="5">
+        <v>16</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D126" s="18">
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="E126" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H126" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I126" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J126" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K126" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L126" s="31" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCB2557-8C5F-4787-A1CE-313FC43DF6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAEF385-AF89-4B10-96A0-A9B3250E26C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2196" yWindow="2604" windowWidth="12960" windowHeight="7848" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="250">
   <si>
     <t>Player</t>
   </si>
@@ -783,9 +783,6 @@
   </si>
   <si>
     <t>Lyney</t>
-  </si>
-  <si>
-    <t>Hu Tao</t>
   </si>
   <si>
     <t>Amber</t>
@@ -988,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1067,16 +1064,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1396,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H120" workbookViewId="0">
-      <selection activeCell="M126" sqref="M126"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5748,7 +5735,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B115" s="5">
@@ -5760,33 +5747,33 @@
       <c r="D115" s="18">
         <v>0.25486111111111109</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F115" s="28" t="s">
+      <c r="F115" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G115" s="28" t="s">
+      <c r="G115" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H115" s="28" t="s">
+      <c r="H115" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I115" s="31" t="s">
+      <c r="I115" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J115" s="31" t="s">
+      <c r="J115" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K115" s="31" t="s">
+      <c r="K115" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L115" s="31" t="s">
+      <c r="L115" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="4" t="s">
         <v>235</v>
       </c>
       <c r="B116" s="5">
@@ -5798,33 +5785,33 @@
       <c r="D116" s="18">
         <v>0.21041666666666667</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F116" s="28" t="s">
+      <c r="F116" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G116" s="28" t="s">
+      <c r="G116" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H116" s="28" t="s">
+      <c r="H116" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I116" s="31" t="s">
+      <c r="I116" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="J116" s="31" t="s">
+      <c r="J116" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K116" s="31" t="s">
+      <c r="K116" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L116" s="31" t="s">
+      <c r="L116" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B117" s="5">
@@ -5836,33 +5823,33 @@
       <c r="D117" s="18">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E117" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F117" s="28" t="s">
+      <c r="F117" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G117" s="28" t="s">
+      <c r="G117" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="28" t="s">
+      <c r="H117" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I117" s="31" t="s">
+      <c r="I117" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="J117" s="31" t="s">
+      <c r="J117" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K117" s="31" t="s">
+      <c r="K117" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L117" s="31" t="s">
+      <c r="L117" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B118" s="5">
@@ -5874,33 +5861,33 @@
       <c r="D118" s="18">
         <v>0.17291666666666669</v>
       </c>
-      <c r="E118" s="30" t="s">
+      <c r="E118" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F118" s="28" t="s">
+      <c r="F118" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G118" s="28" t="s">
+      <c r="G118" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H118" s="28" t="s">
+      <c r="H118" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I118" s="31" t="s">
+      <c r="I118" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="J118" s="31" t="s">
+      <c r="J118" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K118" s="31" t="s">
+      <c r="K118" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L118" s="31" t="s">
+      <c r="L118" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B119" s="5">
@@ -5912,33 +5899,33 @@
       <c r="D119" s="18">
         <v>0.1673611111111111</v>
       </c>
-      <c r="E119" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="F119" s="28" t="s">
+      <c r="E119" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G119" s="28" t="s">
+      <c r="G119" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H119" s="28" t="s">
+      <c r="H119" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I119" s="31" t="s">
+      <c r="I119" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J119" s="31" t="s">
+      <c r="J119" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K119" s="31" t="s">
+      <c r="K119" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L119" s="31" t="s">
+      <c r="L119" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B120" s="5">
@@ -5950,33 +5937,33 @@
       <c r="D120" s="18">
         <v>0.21458333333333335</v>
       </c>
-      <c r="E120" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="F120" s="28" t="s">
+      <c r="E120" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G120" s="28" t="s">
+      <c r="G120" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H120" s="28" t="s">
+      <c r="H120" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I120" s="31" t="s">
+      <c r="I120" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J120" s="31" t="s">
+      <c r="J120" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K120" s="31" t="s">
+      <c r="K120" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L120" s="31" t="s">
+      <c r="L120" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="5">
@@ -5988,33 +5975,33 @@
       <c r="D121" s="18">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E121" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="F121" s="28" t="s">
+      <c r="E121" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G121" s="28" t="s">
+      <c r="G121" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H121" s="28" t="s">
+      <c r="H121" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I121" s="31" t="s">
+      <c r="I121" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J121" s="31" t="s">
+      <c r="J121" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K121" s="31" t="s">
+      <c r="K121" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L121" s="31" t="s">
+      <c r="L121" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B122" s="5">
@@ -6026,71 +6013,71 @@
       <c r="D122" s="18">
         <v>0.17847222222222223</v>
       </c>
-      <c r="E122" s="30" t="s">
+      <c r="E122" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="F122" s="28" t="s">
+      <c r="F122" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G122" s="28" t="s">
+      <c r="G122" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H122" s="28" t="s">
+      <c r="H122" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="I122" s="31" t="s">
+      <c r="I122" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J122" s="31" t="s">
+      <c r="J122" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K122" s="31" t="s">
+      <c r="K122" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L122" s="31" t="s">
+      <c r="L122" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B123" s="5">
         <v>16</v>
       </c>
-      <c r="C123" s="29" t="s">
+      <c r="C123" t="s">
         <v>244</v>
       </c>
       <c r="D123" s="18">
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="E123" s="30" t="s">
+      <c r="E123" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F123" s="28" t="s">
+      <c r="F123" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G123" s="28" t="s">
+      <c r="G123" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H123" s="28" t="s">
+      <c r="H123" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I123" s="31" t="s">
+      <c r="I123" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="J123" s="31" t="s">
+      <c r="J123" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K123" s="31" t="s">
+      <c r="K123" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L123" s="31" t="s">
+      <c r="L123" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B124" s="5">
@@ -6102,33 +6089,33 @@
       <c r="D124" s="18">
         <v>0.20486111111111113</v>
       </c>
-      <c r="E124" s="30" t="s">
+      <c r="E124" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F124" s="28" t="s">
+      <c r="F124" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G124" s="28" t="s">
+      <c r="G124" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H124" s="28" t="s">
+      <c r="H124" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I124" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="J124" s="31" t="s">
+      <c r="I124" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J124" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K124" s="31" t="s">
+      <c r="K124" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L124" s="31" t="s">
+      <c r="L124" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B125" s="5">
@@ -6140,33 +6127,33 @@
       <c r="D125" s="18">
         <v>0.16458333333333333</v>
       </c>
-      <c r="E125" s="30" t="s">
+      <c r="E125" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F125" s="28" t="s">
+      <c r="F125" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G125" s="28" t="s">
+      <c r="G125" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H125" s="28" t="s">
+      <c r="H125" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I125" s="31" t="s">
+      <c r="I125" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="J125" s="31" t="s">
+      <c r="J125" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K125" s="31" t="s">
+      <c r="K125" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L125" s="31" t="s">
+      <c r="L125" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="28" t="s">
+      <c r="A126" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B126" s="5">
@@ -6178,28 +6165,28 @@
       <c r="D126" s="18">
         <v>0.12222222222222223</v>
       </c>
-      <c r="E126" s="30" t="s">
+      <c r="E126" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F126" s="28" t="s">
+      <c r="F126" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G126" s="28" t="s">
+      <c r="G126" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H126" s="28" t="s">
+      <c r="H126" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I126" s="31" t="s">
+      <c r="I126" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J126" s="31" t="s">
+      <c r="J126" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K126" s="31" t="s">
+      <c r="K126" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L126" s="31" t="s">
+      <c r="L126" s="5" t="s">
         <v>158</v>
       </c>
     </row>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAEF385-AF89-4B10-96A0-A9B3250E26C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D88251-70BD-4F4E-A5C3-39DFDFF44180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="254">
   <si>
     <t>Player</t>
   </si>
@@ -786,6 +786,18 @@
   </si>
   <si>
     <t>Amber</t>
+  </si>
+  <si>
+    <t>Staryy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eusT1uEZc3Q</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QaOqW4RDlEY</t>
+  </si>
+  <si>
+    <t>TravelerGeo</t>
   </si>
 </sst>
 </file>
@@ -985,7 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1064,6 +1076,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+      <selection activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6190,6 +6208,82 @@
         <v>158</v>
       </c>
     </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="5">
+        <v>16</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127" s="18">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F127" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H127" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="5">
+        <v>16</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D128" s="18">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="E128" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G128" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H128" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D88251-70BD-4F4E-A5C3-39DFDFF44180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C597F3-BE53-4E15-9EBB-2DF023DA4632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
+    <workbookView xWindow="-2484" yWindow="2436" windowWidth="12960" windowHeight="7848" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="267">
   <si>
     <t>Player</t>
   </si>
@@ -798,6 +798,45 @@
   </si>
   <si>
     <t>TravelerGeo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EnUm3o_kcDU?si=czVzhvOhmsCjIzKB</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LZKeeRT80_E&amp;ab_channel=yangi</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HC28jzR18IQ</t>
+  </si>
+  <si>
+    <t>Neuvillette</t>
+  </si>
+  <si>
+    <t>Dank</t>
+  </si>
+  <si>
+    <t>Tmti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/FX-BVi8WNuI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/JXQoacbiObk?si=ptzdGCwo0cK4YVs9 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F1nd3Bys_h0&amp;t</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kR6vUBqqxR0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mNowl4-K3Rg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Cab8A3zukNc?si=f7HnfISa55Jlg4eq</t>
+  </si>
+  <si>
+    <t>https://youtu.be/P9si_fxE0c0?si=MkdXwDLdAylllSU7</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1079,6 +1118,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="I133" sqref="I133"/>
+    <sheetView tabSelected="1" topLeftCell="H128" workbookViewId="0">
+      <selection activeCell="M138" sqref="M138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6209,7 +6251,7 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="28" t="s">
+      <c r="A127" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B127" s="5">
@@ -6221,16 +6263,16 @@
       <c r="D127" s="18">
         <v>9.930555555555555E-2</v>
       </c>
-      <c r="E127" s="29" t="s">
+      <c r="E127" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F127" s="28" t="s">
+      <c r="F127" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G127" s="28" t="s">
+      <c r="G127" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H127" s="28" t="s">
+      <c r="H127" s="4" t="s">
         <v>253</v>
       </c>
       <c r="I127" s="5" t="s">
@@ -6247,7 +6289,7 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B128" s="5">
@@ -6259,16 +6301,16 @@
       <c r="D128" s="18">
         <v>0.19722222222222222</v>
       </c>
-      <c r="E128" s="29" t="s">
+      <c r="E128" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F128" s="28" t="s">
+      <c r="F128" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G128" s="28" t="s">
+      <c r="G128" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H128" s="28" t="s">
+      <c r="H128" s="4" t="s">
         <v>158</v>
       </c>
       <c r="I128" s="5" t="s">
@@ -6282,6 +6324,386 @@
       </c>
       <c r="L128" s="5" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="5">
+        <v>17</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D129" s="18">
+        <v>0.1875</v>
+      </c>
+      <c r="E129" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H129" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="5">
+        <v>17</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D130" s="18">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="E130" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="29">
+        <v>17</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D131" s="18">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E131" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G131" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H131" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L131" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="29">
+        <v>18</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" s="18">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="E132" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F132" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G132" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H132" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="29">
+        <v>18</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D133" s="18">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="E133" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H133" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B134" s="29">
+        <v>18</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D134" s="18">
+        <v>0.20416666666666669</v>
+      </c>
+      <c r="E134" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H134" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B135" s="29">
+        <v>18</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D135" s="18">
+        <v>0.17569444444444446</v>
+      </c>
+      <c r="E135" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F135" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G135" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H135" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="I135" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L135" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="29">
+        <v>18</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D136" s="18">
+        <v>0.16805555555555554</v>
+      </c>
+      <c r="E136" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F136" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G136" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H136" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="29">
+        <v>18</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D137" s="18">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="E137" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F137" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G137" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H137" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J137" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="29">
+        <v>18</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D138" s="18">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="E138" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F138" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H138" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C597F3-BE53-4E15-9EBB-2DF023DA4632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8BFABD-2F0C-447C-93CA-B8D36A5B22EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2484" yWindow="2436" windowWidth="12960" windowHeight="7848" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="282">
   <si>
     <t>Player</t>
   </si>
@@ -837,6 +837,51 @@
   </si>
   <si>
     <t>https://youtu.be/P9si_fxE0c0?si=MkdXwDLdAylllSU7</t>
+  </si>
+  <si>
+    <t>Beta 2</t>
+  </si>
+  <si>
+    <t>Beta 3</t>
+  </si>
+  <si>
+    <t>Beta 4</t>
+  </si>
+  <si>
+    <t>Beta 5</t>
+  </si>
+  <si>
+    <t>Beta 6</t>
+  </si>
+  <si>
+    <t>Beta 7</t>
+  </si>
+  <si>
+    <t>Beta 8</t>
+  </si>
+  <si>
+    <t>Beta 9</t>
+  </si>
+  <si>
+    <t>Beta 10</t>
+  </si>
+  <si>
+    <t>Beta 13</t>
+  </si>
+  <si>
+    <t>Beta 14</t>
+  </si>
+  <si>
+    <t>Beta 15</t>
+  </si>
+  <si>
+    <t>Beta 16</t>
+  </si>
+  <si>
+    <t>Beta 17</t>
+  </si>
+  <si>
+    <t>Beta 18</t>
   </si>
 </sst>
 </file>
@@ -893,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -954,21 +999,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1059,9 +1089,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1077,7 +1104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1095,35 +1122,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1443,15 +1458,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H128" workbookViewId="0">
-      <selection activeCell="M138" sqref="M138"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="19"/>
+    <col min="3" max="3" width="31.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="18"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="17.77734375" customWidth="1"/>
@@ -1469,7 +1484,7 @@
       <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1504,8 +1519,8 @@
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="6">
-        <v>2</v>
+      <c r="B2" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -1542,8 +1557,8 @@
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="7">
-        <v>2</v>
+      <c r="B3" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
@@ -1580,8 +1595,8 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7">
-        <v>2</v>
+      <c r="B4" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
@@ -1618,8 +1633,8 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
-        <v>2</v>
+      <c r="B5" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
@@ -1656,8 +1671,8 @@
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
-        <v>3</v>
+      <c r="B6" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -1694,8 +1709,8 @@
       <c r="A7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="2">
-        <v>3</v>
+      <c r="B7" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -1732,8 +1747,8 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>3</v>
+      <c r="B8" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C8" t="s">
         <v>122</v>
@@ -1770,8 +1785,8 @@
       <c r="A9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="2">
-        <v>3</v>
+      <c r="B9" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C9" t="s">
         <v>123</v>
@@ -1808,8 +1823,8 @@
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2">
-        <v>3</v>
+      <c r="B10" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C10" t="s">
         <v>124</v>
@@ -1846,8 +1861,8 @@
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
-        <v>3</v>
+      <c r="B11" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
@@ -1884,8 +1899,8 @@
       <c r="A12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="2">
-        <v>3</v>
+      <c r="B12" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C12" t="s">
         <v>126</v>
@@ -1922,8 +1937,8 @@
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2">
-        <v>3</v>
+      <c r="B13" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
@@ -1960,8 +1975,8 @@
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2">
-        <v>3</v>
+      <c r="B14" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
@@ -1998,8 +2013,8 @@
       <c r="A15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="2">
-        <v>3</v>
+      <c r="B15" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C15" t="s">
         <v>129</v>
@@ -2036,10 +2051,10 @@
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>148</v>
       </c>
       <c r="D16" s="3">
@@ -2074,8 +2089,8 @@
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2">
-        <v>4</v>
+      <c r="B17" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="C17" t="s">
         <v>130</v>
@@ -2112,10 +2127,10 @@
       <c r="A18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="3">
@@ -2124,7 +2139,7 @@
       <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2150,10 +2165,10 @@
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="5">
-        <v>5</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="3">
@@ -2188,10 +2203,10 @@
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="5">
-        <v>5</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="3">
@@ -2226,10 +2241,10 @@
       <c r="A21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="5">
-        <v>5</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="3">
@@ -2264,10 +2279,10 @@
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="5">
-        <v>5</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="3">
@@ -2302,10 +2317,10 @@
       <c r="A23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="5">
-        <v>5</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>147</v>
       </c>
       <c r="D23" s="3">
@@ -2340,10 +2355,10 @@
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D24" s="3">
@@ -2378,10 +2393,10 @@
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="5">
-        <v>5</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>137</v>
       </c>
       <c r="D25" s="3">
@@ -2416,10 +2431,10 @@
       <c r="A26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="5">
-        <v>5</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D26" s="3">
@@ -2454,10 +2469,10 @@
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="5">
-        <v>5</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>138</v>
       </c>
       <c r="D27" s="3">
@@ -2492,10 +2507,10 @@
       <c r="A28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="5">
-        <v>5</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>139</v>
       </c>
       <c r="D28" s="3">
@@ -2530,10 +2545,10 @@
       <c r="A29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="5">
-        <v>5</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D29" s="3">
@@ -2568,10 +2583,10 @@
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="5">
-        <v>5</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D30" s="3">
@@ -2606,10 +2621,10 @@
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="5">
-        <v>5</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>142</v>
       </c>
       <c r="D31" s="3">
@@ -2644,10 +2659,10 @@
       <c r="A32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="5">
-        <v>5</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D32" s="3">
@@ -2682,10 +2697,10 @@
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="5">
-        <v>5</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="3">
@@ -2720,10 +2735,10 @@
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="5">
-        <v>5</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>145</v>
       </c>
       <c r="D34" s="3">
@@ -2758,10 +2773,10 @@
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="5">
-        <v>5</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D35" s="3">
@@ -2796,8 +2811,8 @@
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="5">
-        <v>6</v>
+      <c r="B36" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C36" t="s">
         <v>85</v>
@@ -2834,8 +2849,8 @@
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="5">
-        <v>6</v>
+      <c r="B37" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C37" t="s">
         <v>84</v>
@@ -2872,8 +2887,8 @@
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="5">
-        <v>6</v>
+      <c r="B38" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C38" t="s">
         <v>83</v>
@@ -2910,8 +2925,8 @@
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="5">
-        <v>6</v>
+      <c r="B39" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C39" t="s">
         <v>82</v>
@@ -2948,8 +2963,8 @@
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="5">
-        <v>6</v>
+      <c r="B40" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C40" t="s">
         <v>81</v>
@@ -2986,8 +3001,8 @@
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="5">
-        <v>6</v>
+      <c r="B41" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
@@ -3024,8 +3039,8 @@
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="5">
-        <v>6</v>
+      <c r="B42" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C42" t="s">
         <v>79</v>
@@ -3062,8 +3077,8 @@
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="5">
-        <v>6</v>
+      <c r="B43" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C43" t="s">
         <v>78</v>
@@ -3100,8 +3115,8 @@
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="5">
-        <v>6</v>
+      <c r="B44" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C44" t="s">
         <v>77</v>
@@ -3138,8 +3153,8 @@
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="2">
-        <v>6</v>
+      <c r="B45" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C45" t="s">
         <v>76</v>
@@ -3176,8 +3191,8 @@
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="5">
-        <v>6</v>
+      <c r="B46" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C46" t="s">
         <v>69</v>
@@ -3214,8 +3229,8 @@
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="2">
-        <v>6</v>
+      <c r="B47" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C47" t="s">
         <v>75</v>
@@ -3252,8 +3267,8 @@
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="2">
-        <v>6</v>
+      <c r="B48" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C48" t="s">
         <v>74</v>
@@ -3290,8 +3305,8 @@
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="2">
-        <v>6</v>
+      <c r="B49" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C49" t="s">
         <v>73</v>
@@ -3328,8 +3343,8 @@
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="2">
-        <v>6</v>
+      <c r="B50" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C50" t="s">
         <v>72</v>
@@ -3366,8 +3381,8 @@
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="2">
-        <v>6</v>
+      <c r="B51" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C51" t="s">
         <v>71</v>
@@ -3401,25 +3416,25 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="26">
-        <v>6</v>
-      </c>
-      <c r="C52" s="22" t="s">
+      <c r="B52" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="25">
         <v>0.19722222222222222</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="24" t="s">
         <v>63</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -3439,25 +3454,25 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="23">
-        <v>7</v>
-      </c>
-      <c r="C53" s="22" t="s">
+      <c r="B53" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="23">
         <v>0.1986111111111111</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="22" t="s">
         <v>49</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -3477,25 +3492,25 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="20">
-        <v>7</v>
+      <c r="B54" s="22" t="s">
+        <v>272</v>
       </c>
       <c r="C54" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="20">
         <v>0.17916666666666667</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="19" t="s">
         <v>49</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -3518,16 +3533,16 @@
       <c r="A55" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="14">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
+      <c r="B55" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>0.24374999999999999</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -3556,16 +3571,16 @@
       <c r="A56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="14">
-        <v>8</v>
-      </c>
-      <c r="C56" s="13" t="s">
+      <c r="B56" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>0.28263888888888888</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -3594,16 +3609,16 @@
       <c r="A57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="14">
-        <v>8</v>
-      </c>
-      <c r="C57" s="13" t="s">
+      <c r="B57" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>0.25486111111111109</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="16" t="s">
         <v>156</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -3632,16 +3647,16 @@
       <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="14">
-        <v>8</v>
-      </c>
-      <c r="C58" s="13" t="s">
+      <c r="B58" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="14">
         <v>0.27916666666666667</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -3670,16 +3685,16 @@
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="14">
-        <v>8</v>
+      <c r="B59" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="C59" t="s">
         <v>153</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>0.3215277777777778</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -3708,16 +3723,16 @@
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="14">
-        <v>8</v>
+      <c r="B60" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="C60" t="s">
         <v>154</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="14">
         <v>0.19513888888888889</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -3746,16 +3761,16 @@
       <c r="A61" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="14">
-        <v>8</v>
-      </c>
-      <c r="C61" s="13" t="s">
+      <c r="B61" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <v>0.18888888888888888</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="16" t="s">
         <v>159</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -3784,16 +3799,16 @@
       <c r="A62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="5">
-        <v>8</v>
-      </c>
-      <c r="C62" s="13" t="s">
+      <c r="B62" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="14">
         <v>0.17083333333333331</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="16" t="s">
         <v>94</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -3822,16 +3837,16 @@
       <c r="A63" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="5">
-        <v>8</v>
+      <c r="B63" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="C63" t="s">
         <v>166</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="17">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="16" t="s">
         <v>94</v>
       </c>
       <c r="F63" s="4" t="s">
@@ -3860,16 +3875,16 @@
       <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="5">
-        <v>8</v>
-      </c>
-      <c r="C64" s="13" t="s">
+      <c r="B64" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="17">
         <v>0.24305555555555555</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="4" t="s">
@@ -3898,16 +3913,16 @@
       <c r="A65" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="5">
-        <v>8</v>
-      </c>
-      <c r="C65" s="13" t="s">
+      <c r="B65" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="17">
         <v>0.22222222222222221</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F65" s="4" t="s">
@@ -3936,16 +3951,16 @@
       <c r="A66" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="5">
-        <v>8</v>
-      </c>
-      <c r="C66" s="13" t="s">
+      <c r="B66" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="17">
         <v>0.22083333333333333</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="16" t="s">
         <v>178</v>
       </c>
       <c r="F66" s="4" t="s">
@@ -3974,16 +3989,16 @@
       <c r="A67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="5">
-        <v>8</v>
-      </c>
-      <c r="C67" s="13" t="s">
+      <c r="B67" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="17">
         <v>0.21111111111111111</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -4012,16 +4027,16 @@
       <c r="A68" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="5">
-        <v>8</v>
-      </c>
-      <c r="C68" s="13" t="s">
+      <c r="B68" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="17">
         <v>0.28888888888888892</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="16" t="s">
         <v>110</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -4050,16 +4065,16 @@
       <c r="A69" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B69" s="5">
-        <v>8</v>
-      </c>
-      <c r="C69" s="13" t="s">
+      <c r="B69" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="17">
         <v>0.34097222222222223</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F69" s="4" t="s">
@@ -4088,13 +4103,13 @@
       <c r="A70" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="5">
-        <v>8</v>
-      </c>
-      <c r="C70" s="13" t="s">
+      <c r="B70" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="17">
         <v>0.30486111111111108</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -4126,16 +4141,16 @@
       <c r="A71" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B71" s="5">
-        <v>8</v>
-      </c>
-      <c r="C71" s="13" t="s">
+      <c r="B71" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="17">
         <v>0.30277777777777776</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F71" s="4" t="s">
@@ -4164,16 +4179,16 @@
       <c r="A72" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="5">
-        <v>8</v>
-      </c>
-      <c r="C72" s="13" t="s">
+      <c r="B72" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="17">
         <v>0.22847222222222222</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -4202,16 +4217,16 @@
       <c r="A73" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B73" s="5">
-        <v>8</v>
-      </c>
-      <c r="C73" s="13" t="s">
+      <c r="B73" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73" s="17">
         <v>0.18819444444444444</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F73" s="4" t="s">
@@ -4240,16 +4255,16 @@
       <c r="A74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="5">
-        <v>8</v>
-      </c>
-      <c r="C74" s="13" t="s">
+      <c r="B74" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="17">
         <v>0.27847222222222223</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F74" s="4" t="s">
@@ -4278,16 +4293,16 @@
       <c r="A75" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B75" s="5">
-        <v>8</v>
-      </c>
-      <c r="C75" s="13" t="s">
+      <c r="B75" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="17">
         <v>0.14166666666666666</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F75" s="4" t="s">
@@ -4316,16 +4331,16 @@
       <c r="A76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="5">
-        <v>8</v>
-      </c>
-      <c r="C76" s="13" t="s">
+      <c r="B76" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="17">
         <v>0.23333333333333331</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F76" s="4" t="s">
@@ -4354,16 +4369,16 @@
       <c r="A77" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="5">
-        <v>9</v>
-      </c>
-      <c r="C77" s="13" t="s">
+      <c r="B77" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D77" s="17">
         <v>0.14444444444444446</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="16" t="s">
         <v>159</v>
       </c>
       <c r="F77" s="4" t="s">
@@ -4392,16 +4407,16 @@
       <c r="A78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="5">
-        <v>9</v>
-      </c>
-      <c r="C78" s="13" t="s">
+      <c r="B78" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="17">
         <v>0.22152777777777777</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F78" s="4" t="s">
@@ -4430,16 +4445,16 @@
       <c r="A79" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="5">
-        <v>9</v>
-      </c>
-      <c r="C79" s="13" t="s">
+      <c r="B79" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D79" s="17">
         <v>0.13958333333333334</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="16" t="s">
         <v>159</v>
       </c>
       <c r="F79" s="4" t="s">
@@ -4468,16 +4483,16 @@
       <c r="A80" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B80" s="5">
-        <v>9</v>
-      </c>
-      <c r="C80" s="13" t="s">
+      <c r="B80" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D80" s="17">
         <v>0.21597222222222223</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F80" s="4" t="s">
@@ -4506,16 +4521,16 @@
       <c r="A81" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="5">
-        <v>9</v>
-      </c>
-      <c r="C81" s="13" t="s">
+      <c r="B81" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="17">
         <v>0.19652777777777777</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F81" s="4" t="s">
@@ -4544,16 +4559,16 @@
       <c r="A82" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="5">
-        <v>9</v>
-      </c>
-      <c r="C82" s="13" t="s">
+      <c r="B82" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D82" s="17">
         <v>0.17847222222222223</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F82" s="4" t="s">
@@ -4582,16 +4597,16 @@
       <c r="A83" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="5">
-        <v>9</v>
-      </c>
-      <c r="C83" s="13" t="s">
+      <c r="B83" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D83" s="17">
         <v>0.30138888888888887</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F83" s="4" t="s">
@@ -4620,16 +4635,16 @@
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="5">
-        <v>9</v>
-      </c>
-      <c r="C84" s="13" t="s">
+      <c r="B84" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D84" s="17">
         <v>0.19513888888888889</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="16" t="s">
         <v>159</v>
       </c>
       <c r="F84" s="4" t="s">
@@ -4658,16 +4673,16 @@
       <c r="A85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="5">
-        <v>9</v>
-      </c>
-      <c r="C85" s="13" t="s">
+      <c r="B85" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D85" s="17">
         <v>0.21388888888888891</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F85" s="4" t="s">
@@ -4696,16 +4711,16 @@
       <c r="A86" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="5">
-        <v>9</v>
+      <c r="B86" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="C86" t="s">
         <v>195</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D86" s="17">
         <v>0.15902777777777777</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="16" t="s">
         <v>159</v>
       </c>
       <c r="F86" s="4" t="s">
@@ -4734,16 +4749,16 @@
       <c r="A87" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="5">
-        <v>10</v>
+      <c r="B87" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="C87" t="s">
         <v>198</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="17">
         <v>0.23680555555555557</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="16" t="s">
         <v>196</v>
       </c>
       <c r="F87" s="4" t="s">
@@ -4772,16 +4787,16 @@
       <c r="A88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="5">
-        <v>10</v>
+      <c r="B88" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="C88" t="s">
         <v>199</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="17">
         <v>0.19513888888888889</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F88" s="4" t="s">
@@ -4810,16 +4825,16 @@
       <c r="A89" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="5">
-        <v>10</v>
-      </c>
-      <c r="C89" s="13" t="s">
+      <c r="B89" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D89" s="17">
         <v>0.27569444444444446</v>
       </c>
-      <c r="E89" s="17" t="s">
+      <c r="E89" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F89" s="4" t="s">
@@ -4848,16 +4863,16 @@
       <c r="A90" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="5">
-        <v>10</v>
-      </c>
-      <c r="C90" s="13" t="s">
+      <c r="B90" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="17">
         <v>0.20902777777777778</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="16" t="s">
         <v>96</v>
       </c>
       <c r="F90" s="4" t="s">
@@ -4886,16 +4901,16 @@
       <c r="A91" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="5">
-        <v>10</v>
+      <c r="B91" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="C91" t="s">
         <v>202</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D91" s="17">
         <v>0.17986111111111111</v>
       </c>
-      <c r="E91" s="17" t="s">
+      <c r="E91" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F91" s="4" t="s">
@@ -4924,16 +4939,16 @@
       <c r="A92" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="5">
-        <v>10</v>
-      </c>
-      <c r="C92" s="13" t="s">
+      <c r="B92" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="17">
         <v>0.23750000000000002</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F92" s="4" t="s">
@@ -4962,16 +4977,16 @@
       <c r="A93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="5">
-        <v>10</v>
-      </c>
-      <c r="C93" s="13" t="s">
+      <c r="B93" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="17">
         <v>0.26805555555555555</v>
       </c>
-      <c r="E93" s="17" t="s">
+      <c r="E93" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F93" s="4" t="s">
@@ -5000,16 +5015,16 @@
       <c r="A94" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="5">
-        <v>10</v>
+      <c r="B94" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="C94" t="s">
         <v>205</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="17">
         <v>0.16597222222222222</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F94" s="4" t="s">
@@ -5038,16 +5053,16 @@
       <c r="A95" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="5">
-        <v>10</v>
-      </c>
-      <c r="C95" s="13" t="s">
+      <c r="B95" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="17">
         <v>0.17916666666666667</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F95" s="4" t="s">
@@ -5076,16 +5091,16 @@
       <c r="A96" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="5">
-        <v>10</v>
-      </c>
-      <c r="C96" s="13" t="s">
+      <c r="B96" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="17">
         <v>0.25069444444444444</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F96" s="4" t="s">
@@ -5114,16 +5129,16 @@
       <c r="A97" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="5">
-        <v>10</v>
+      <c r="B97" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="C97" t="s">
         <v>208</v>
       </c>
-      <c r="D97" s="18">
+      <c r="D97" s="17">
         <v>0.15347222222222223</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E97" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F97" s="4" t="s">
@@ -5152,16 +5167,16 @@
       <c r="A98" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B98" s="5">
-        <v>10</v>
+      <c r="B98" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="C98" t="s">
         <v>210</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="17">
         <v>0.22569444444444445</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -5190,16 +5205,16 @@
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="5">
-        <v>13</v>
-      </c>
-      <c r="C99" s="13" t="s">
+      <c r="B99" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="17">
         <v>0.23958333333333334</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F99" s="4" t="s">
@@ -5228,16 +5243,16 @@
       <c r="A100" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="5">
-        <v>13</v>
-      </c>
-      <c r="C100" s="13" t="s">
+      <c r="B100" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D100" s="18">
+      <c r="D100" s="17">
         <v>0.15902777777777777</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F100" s="4" t="s">
@@ -5266,16 +5281,16 @@
       <c r="A101" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B101" s="5">
-        <v>13</v>
-      </c>
-      <c r="C101" s="13" t="s">
+      <c r="B101" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D101" s="18">
+      <c r="D101" s="17">
         <v>5.6944444444444443E-2</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E101" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F101" s="4" t="s">
@@ -5304,16 +5319,16 @@
       <c r="A102" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="5">
-        <v>13</v>
-      </c>
-      <c r="C102" s="13" t="s">
+      <c r="B102" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D102" s="18">
+      <c r="D102" s="17">
         <v>0.19305555555555554</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="16" t="s">
         <v>156</v>
       </c>
       <c r="F102" s="4" t="s">
@@ -5342,16 +5357,16 @@
       <c r="A103" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B103" s="5">
-        <v>13</v>
-      </c>
-      <c r="C103" s="13" t="s">
+      <c r="B103" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D103" s="18">
+      <c r="D103" s="17">
         <v>0.18541666666666667</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F103" s="4" t="s">
@@ -5380,16 +5395,16 @@
       <c r="A104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B104" s="5">
-        <v>13</v>
-      </c>
-      <c r="C104" s="13" t="s">
+      <c r="B104" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D104" s="18">
+      <c r="D104" s="17">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E104" s="17" t="s">
+      <c r="E104" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F104" s="4" t="s">
@@ -5418,16 +5433,16 @@
       <c r="A105" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="5">
-        <v>13</v>
-      </c>
-      <c r="C105" s="13" t="s">
+      <c r="B105" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="17">
         <v>0.17291666666666669</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E105" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F105" s="4" t="s">
@@ -5456,16 +5471,16 @@
       <c r="A106" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B106" s="5">
-        <v>13</v>
-      </c>
-      <c r="C106" s="13" t="s">
+      <c r="B106" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D106" s="18">
+      <c r="D106" s="17">
         <v>0.16944444444444443</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E106" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="4" t="s">
@@ -5494,16 +5509,16 @@
       <c r="A107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="5">
-        <v>13</v>
-      </c>
-      <c r="C107" s="13" t="s">
+      <c r="B107" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D107" s="18">
+      <c r="D107" s="17">
         <v>0.28819444444444448</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E107" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F107" s="4" t="s">
@@ -5532,16 +5547,16 @@
       <c r="A108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="5">
-        <v>13</v>
-      </c>
-      <c r="C108" s="13" t="s">
+      <c r="B108" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="17">
         <v>0.18541666666666667</v>
       </c>
-      <c r="E108" s="17" t="s">
+      <c r="E108" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -5570,16 +5585,16 @@
       <c r="A109" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B109" s="5">
-        <v>14</v>
-      </c>
-      <c r="C109" s="13" t="s">
+      <c r="B109" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="17">
         <v>0.2590277777777778</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E109" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F109" s="4" t="s">
@@ -5608,16 +5623,16 @@
       <c r="A110" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="5">
-        <v>14</v>
-      </c>
-      <c r="C110" s="13" t="s">
+      <c r="B110" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D110" s="18">
+      <c r="D110" s="17">
         <v>0.21458333333333335</v>
       </c>
-      <c r="E110" s="17" t="s">
+      <c r="E110" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F110" s="4" t="s">
@@ -5646,16 +5661,16 @@
       <c r="A111" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B111" s="5">
-        <v>14</v>
-      </c>
-      <c r="C111" s="13" t="s">
+      <c r="B111" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="17">
         <v>0.21527777777777779</v>
       </c>
-      <c r="E111" s="17" t="s">
+      <c r="E111" s="16" t="s">
         <v>178</v>
       </c>
       <c r="F111" s="4" t="s">
@@ -5684,16 +5699,16 @@
       <c r="A112" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B112" s="5">
-        <v>14</v>
-      </c>
-      <c r="C112" s="13" t="s">
+      <c r="B112" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="17">
         <v>0.15694444444444444</v>
       </c>
-      <c r="E112" s="17" t="s">
+      <c r="E112" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F112" s="4" t="s">
@@ -5722,16 +5737,16 @@
       <c r="A113" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B113" s="5">
-        <v>14</v>
-      </c>
-      <c r="C113" s="13" t="s">
+      <c r="B113" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D113" s="18">
+      <c r="D113" s="17">
         <v>0.28680555555555554</v>
       </c>
-      <c r="E113" s="17" t="s">
+      <c r="E113" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F113" s="4" t="s">
@@ -5760,16 +5775,16 @@
       <c r="A114" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="5">
-        <v>15</v>
-      </c>
-      <c r="C114" s="13" t="s">
+      <c r="B114" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C114" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D114" s="18">
+      <c r="D114" s="17">
         <v>0.18958333333333333</v>
       </c>
-      <c r="E114" s="17" t="s">
+      <c r="E114" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F114" s="4" t="s">
@@ -5781,7 +5796,7 @@
       <c r="H114" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I114" s="17" t="s">
+      <c r="I114" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J114" s="4" t="s">
@@ -5798,16 +5813,16 @@
       <c r="A115" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B115" s="5">
-        <v>16</v>
-      </c>
-      <c r="C115" s="13" t="s">
+      <c r="B115" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D115" s="18">
+      <c r="D115" s="17">
         <v>0.25486111111111109</v>
       </c>
-      <c r="E115" s="17" t="s">
+      <c r="E115" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F115" s="4" t="s">
@@ -5836,16 +5851,16 @@
       <c r="A116" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B116" s="5">
-        <v>16</v>
-      </c>
-      <c r="C116" s="13" t="s">
+      <c r="B116" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D116" s="18">
+      <c r="D116" s="17">
         <v>0.21041666666666667</v>
       </c>
-      <c r="E116" s="17" t="s">
+      <c r="E116" s="16" t="s">
         <v>159</v>
       </c>
       <c r="F116" s="4" t="s">
@@ -5874,16 +5889,16 @@
       <c r="A117" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="5">
-        <v>16</v>
-      </c>
-      <c r="C117" s="13" t="s">
+      <c r="B117" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="17">
         <v>0.10972222222222222</v>
       </c>
-      <c r="E117" s="17" t="s">
+      <c r="E117" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F117" s="4" t="s">
@@ -5912,16 +5927,16 @@
       <c r="A118" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="5">
-        <v>16</v>
-      </c>
-      <c r="C118" s="13" t="s">
+      <c r="B118" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D118" s="17">
         <v>0.17291666666666669</v>
       </c>
-      <c r="E118" s="17" t="s">
+      <c r="E118" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -5950,16 +5965,16 @@
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="5">
-        <v>16</v>
-      </c>
-      <c r="C119" s="13" t="s">
+      <c r="B119" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D119" s="17">
         <v>0.1673611111111111</v>
       </c>
-      <c r="E119" s="17" t="s">
+      <c r="E119" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F119" s="4" t="s">
@@ -5988,16 +6003,16 @@
       <c r="A120" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B120" s="5">
-        <v>16</v>
-      </c>
-      <c r="C120" s="13" t="s">
+      <c r="B120" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D120" s="18">
+      <c r="D120" s="17">
         <v>0.21458333333333335</v>
       </c>
-      <c r="E120" s="17" t="s">
+      <c r="E120" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F120" s="4" t="s">
@@ -6026,16 +6041,16 @@
       <c r="A121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="5">
-        <v>16</v>
-      </c>
-      <c r="C121" s="13" t="s">
+      <c r="B121" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D121" s="17">
         <v>0.15277777777777776</v>
       </c>
-      <c r="E121" s="17" t="s">
+      <c r="E121" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F121" s="4" t="s">
@@ -6064,16 +6079,16 @@
       <c r="A122" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B122" s="5">
-        <v>16</v>
-      </c>
-      <c r="C122" s="13" t="s">
+      <c r="B122" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D122" s="18">
+      <c r="D122" s="17">
         <v>0.17847222222222223</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="E122" s="16" t="s">
         <v>178</v>
       </c>
       <c r="F122" s="4" t="s">
@@ -6102,16 +6117,16 @@
       <c r="A123" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B123" s="5">
-        <v>16</v>
+      <c r="B123" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="C123" t="s">
         <v>244</v>
       </c>
-      <c r="D123" s="18">
+      <c r="D123" s="17">
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E123" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F123" s="4" t="s">
@@ -6140,16 +6155,16 @@
       <c r="A124" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B124" s="5">
-        <v>16</v>
-      </c>
-      <c r="C124" s="13" t="s">
+      <c r="B124" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D124" s="18">
+      <c r="D124" s="17">
         <v>0.20486111111111113</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E124" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F124" s="4" t="s">
@@ -6178,16 +6193,16 @@
       <c r="A125" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="5">
-        <v>16</v>
-      </c>
-      <c r="C125" s="13" t="s">
+      <c r="B125" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D125" s="18">
+      <c r="D125" s="17">
         <v>0.16458333333333333</v>
       </c>
-      <c r="E125" s="17" t="s">
+      <c r="E125" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F125" s="4" t="s">
@@ -6216,16 +6231,16 @@
       <c r="A126" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B126" s="5">
-        <v>16</v>
-      </c>
-      <c r="C126" s="13" t="s">
+      <c r="B126" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D126" s="18">
+      <c r="D126" s="17">
         <v>0.12222222222222223</v>
       </c>
-      <c r="E126" s="17" t="s">
+      <c r="E126" s="16" t="s">
         <v>92</v>
       </c>
       <c r="F126" s="4" t="s">
@@ -6254,16 +6269,16 @@
       <c r="A127" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B127" s="5">
-        <v>16</v>
-      </c>
-      <c r="C127" s="13" t="s">
+      <c r="B127" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C127" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D127" s="18">
+      <c r="D127" s="17">
         <v>9.930555555555555E-2</v>
       </c>
-      <c r="E127" s="17" t="s">
+      <c r="E127" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F127" s="4" t="s">
@@ -6292,16 +6307,16 @@
       <c r="A128" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B128" s="5">
-        <v>16</v>
-      </c>
-      <c r="C128" s="13" t="s">
+      <c r="B128" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D128" s="17">
         <v>0.19722222222222222</v>
       </c>
-      <c r="E128" s="17" t="s">
+      <c r="E128" s="16" t="s">
         <v>159</v>
       </c>
       <c r="F128" s="4" t="s">
@@ -6327,28 +6342,28 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="28" t="s">
+      <c r="A129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="5">
-        <v>17</v>
-      </c>
-      <c r="C129" s="13" t="s">
+      <c r="B129" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C129" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D129" s="18">
+      <c r="D129" s="17">
         <v>0.1875</v>
       </c>
-      <c r="E129" s="30" t="s">
+      <c r="E129" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F129" s="28" t="s">
+      <c r="F129" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G129" s="28" t="s">
+      <c r="G129" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H129" s="28" t="s">
+      <c r="H129" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I129" s="5" t="s">
@@ -6365,28 +6380,28 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="28" t="s">
+      <c r="A130" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="5">
-        <v>17</v>
-      </c>
-      <c r="C130" s="13" t="s">
+      <c r="B130" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D130" s="18">
+      <c r="D130" s="17">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="E130" s="30" t="s">
+      <c r="E130" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="F130" s="28" t="s">
+      <c r="F130" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G130" s="28" t="s">
+      <c r="G130" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H130" s="28" t="s">
+      <c r="H130" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I130" s="5" t="s">
@@ -6403,28 +6418,28 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B131" s="29">
-        <v>17</v>
-      </c>
-      <c r="C131" s="13" t="s">
+      <c r="B131" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D131" s="18">
+      <c r="D131" s="17">
         <v>0.14583333333333334</v>
       </c>
-      <c r="E131" s="30" t="s">
+      <c r="E131" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F131" s="28" t="s">
+      <c r="F131" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G131" s="28" t="s">
+      <c r="G131" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H131" s="28" t="s">
+      <c r="H131" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I131" s="5" t="s">
@@ -6441,28 +6456,28 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B132" s="29">
-        <v>18</v>
-      </c>
-      <c r="C132" s="13" t="s">
+      <c r="B132" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D132" s="17">
         <v>0.25277777777777777</v>
       </c>
-      <c r="E132" s="30" t="s">
+      <c r="E132" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F132" s="28" t="s">
+      <c r="F132" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G132" s="28" t="s">
+      <c r="G132" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H132" s="28" t="s">
+      <c r="H132" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I132" s="5" t="s">
@@ -6479,28 +6494,28 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="29">
-        <v>18</v>
-      </c>
-      <c r="C133" s="13" t="s">
+      <c r="B133" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D133" s="17">
         <v>0.22291666666666665</v>
       </c>
-      <c r="E133" s="30" t="s">
+      <c r="E133" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F133" s="28" t="s">
+      <c r="F133" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G133" s="28" t="s">
+      <c r="G133" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H133" s="28" t="s">
+      <c r="H133" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I133" s="5" t="s">
@@ -6517,28 +6532,28 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B134" s="29">
-        <v>18</v>
-      </c>
-      <c r="C134" s="13" t="s">
+      <c r="B134" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D134" s="18">
+      <c r="D134" s="17">
         <v>0.20416666666666669</v>
       </c>
-      <c r="E134" s="30" t="s">
+      <c r="E134" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F134" s="28" t="s">
+      <c r="F134" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G134" s="28" t="s">
+      <c r="G134" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H134" s="28" t="s">
+      <c r="H134" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I134" s="5" t="s">
@@ -6555,28 +6570,28 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B135" s="29">
-        <v>18</v>
-      </c>
-      <c r="C135" s="13" t="s">
+      <c r="B135" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D135" s="18">
+      <c r="D135" s="17">
         <v>0.17569444444444446</v>
       </c>
-      <c r="E135" s="30" t="s">
+      <c r="E135" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F135" s="28" t="s">
+      <c r="F135" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G135" s="28" t="s">
+      <c r="G135" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H135" s="28" t="s">
+      <c r="H135" s="4" t="s">
         <v>249</v>
       </c>
       <c r="I135" s="5" t="s">
@@ -6593,28 +6608,28 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="29" t="s">
+      <c r="A136" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="29">
-        <v>18</v>
-      </c>
-      <c r="C136" s="13" t="s">
+      <c r="B136" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="17">
         <v>0.16805555555555554</v>
       </c>
-      <c r="E136" s="30" t="s">
+      <c r="E136" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F136" s="28" t="s">
+      <c r="F136" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G136" s="28" t="s">
+      <c r="G136" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H136" s="28" t="s">
+      <c r="H136" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I136" s="5" t="s">
@@ -6631,28 +6646,28 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="29" t="s">
+      <c r="A137" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="29">
-        <v>18</v>
-      </c>
-      <c r="C137" s="13" t="s">
+      <c r="B137" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C137" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="17">
         <v>0.20902777777777778</v>
       </c>
-      <c r="E137" s="30" t="s">
+      <c r="E137" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="F137" s="28" t="s">
+      <c r="F137" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G137" s="28" t="s">
+      <c r="G137" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H137" s="28" t="s">
+      <c r="H137" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I137" s="5" t="s">
@@ -6669,28 +6684,28 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138" s="29" t="s">
+      <c r="A138" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B138" s="29">
-        <v>18</v>
-      </c>
-      <c r="C138" s="13" t="s">
+      <c r="B138" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="17">
         <v>8.6111111111111124E-2</v>
       </c>
-      <c r="E138" s="30" t="s">
+      <c r="E138" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F138" s="28" t="s">
+      <c r="F138" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G138" s="28" t="s">
+      <c r="G138" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H138" s="28" t="s">
+      <c r="H138" s="4" t="s">
         <v>249</v>
       </c>
       <c r="I138" s="5" t="s">

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8BFABD-2F0C-447C-93CA-B8D36A5B22EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D6B2A9-EA73-413A-9114-9D387D96363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1140,6 +1140,13 @@
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1458,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1560,7 +1567,7 @@
       <c r="B3" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="26" t="s">
         <v>117</v>
       </c>
       <c r="D3" s="3">
@@ -2016,7 +2023,7 @@
       <c r="B15" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="26" t="s">
         <v>129</v>
       </c>
       <c r="D15" s="3">
@@ -2092,7 +2099,7 @@
       <c r="B17" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="26" t="s">
         <v>130</v>
       </c>
       <c r="D17" s="3">
@@ -2586,7 +2593,7 @@
       <c r="B30" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D30" s="3">
@@ -3232,7 +3239,7 @@
       <c r="B47" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="26" t="s">
         <v>75</v>
       </c>
       <c r="D47" s="3">
@@ -3498,7 +3505,7 @@
       <c r="B54" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="26" t="s">
         <v>114</v>
       </c>
       <c r="D54" s="20">
@@ -4296,7 +4303,7 @@
       <c r="B75" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="28" t="s">
         <v>181</v>
       </c>
       <c r="D75" s="17">
@@ -4448,7 +4455,7 @@
       <c r="B79" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="28" t="s">
         <v>188</v>
       </c>
       <c r="D79" s="17">
@@ -5132,7 +5139,7 @@
       <c r="B97" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="26" t="s">
         <v>208</v>
       </c>
       <c r="D97" s="17">
@@ -5284,7 +5291,7 @@
       <c r="B101" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="28" t="s">
         <v>218</v>
       </c>
       <c r="D101" s="17">
@@ -5702,7 +5709,7 @@
       <c r="B112" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="28" t="s">
         <v>229</v>
       </c>
       <c r="D112" s="17">
@@ -5778,7 +5785,7 @@
       <c r="B114" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="28" t="s">
         <v>232</v>
       </c>
       <c r="D114" s="17">
@@ -6120,7 +6127,7 @@
       <c r="B123" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="26" t="s">
         <v>244</v>
       </c>
       <c r="D123" s="17">
@@ -6424,7 +6431,7 @@
       <c r="B131" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="28" t="s">
         <v>256</v>
       </c>
       <c r="D131" s="17">
@@ -6690,7 +6697,7 @@
       <c r="B138" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="28" t="s">
         <v>266</v>
       </c>
       <c r="D138" s="17">
@@ -6722,7 +6729,24 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{073C70E9-242D-4B46-B9AB-2367041E6BC0}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{DAAF6BA5-0EF0-4CA9-93D2-7710F71E5BE1}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{97F7FC13-092A-4468-8814-910009AD154D}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{9361452F-E16A-45E8-9E98-12B1586B95BD}"/>
+    <hyperlink ref="C47" r:id="rId5" xr:uid="{59EC6D77-ADBA-4221-A499-5016FF56EB90}"/>
+    <hyperlink ref="C54" r:id="rId6" xr:uid="{174E2F14-812D-4951-9D00-8461FC7E410C}"/>
+    <hyperlink ref="C75" r:id="rId7" xr:uid="{C8872E06-1FFA-46BF-914F-BBC9656C84CD}"/>
+    <hyperlink ref="C79" r:id="rId8" xr:uid="{AFC5A004-4546-439E-BDAF-90E498189439}"/>
+    <hyperlink ref="C97" r:id="rId9" xr:uid="{97ADB8FE-301F-4BD8-946D-111A7F338FE2}"/>
+    <hyperlink ref="C101" r:id="rId10" xr:uid="{B31446E8-F02E-4B49-9FCF-F801DF759EE4}"/>
+    <hyperlink ref="C112" r:id="rId11" xr:uid="{FA3E59BD-8330-4011-984F-3C1E041E2537}"/>
+    <hyperlink ref="C114" r:id="rId12" xr:uid="{488F3A93-8947-4DDC-A38B-CA4134605713}"/>
+    <hyperlink ref="C123" r:id="rId13" xr:uid="{C9EC4079-57C5-4529-937F-053D35243B5E}"/>
+    <hyperlink ref="C131" r:id="rId14" xr:uid="{13F28606-DB76-4A03-9C9E-5C82FD5DCF70}"/>
+    <hyperlink ref="C138" r:id="rId15" xr:uid="{F3402D61-7C90-431D-93AF-784BD7435849}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D6B2A9-EA73-413A-9114-9D387D96363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CBCE89-742B-42B2-8C21-65E1FE588EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="285">
   <si>
     <t>Player</t>
   </si>
@@ -882,6 +882,15 @@
   </si>
   <si>
     <t>Beta 18</t>
+  </si>
+  <si>
+    <t>Not Logic</t>
+  </si>
+  <si>
+    <t>Baizhu</t>
+  </si>
+  <si>
+    <t>YunJin</t>
   </si>
 </sst>
 </file>
@@ -1463,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6725,6 +6734,196 @@
         <v>93</v>
       </c>
       <c r="L138" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>250</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D139" s="17">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="E139" t="s">
+        <v>178</v>
+      </c>
+      <c r="F139" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" t="s">
+        <v>35</v>
+      </c>
+      <c r="H139" t="s">
+        <v>46</v>
+      </c>
+      <c r="I139" t="s">
+        <v>105</v>
+      </c>
+      <c r="J139" t="s">
+        <v>106</v>
+      </c>
+      <c r="K139" t="s">
+        <v>253</v>
+      </c>
+      <c r="L139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>282</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D140" s="17">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="E140" t="s">
+        <v>28</v>
+      </c>
+      <c r="F140" t="s">
+        <v>27</v>
+      </c>
+      <c r="G140" t="s">
+        <v>34</v>
+      </c>
+      <c r="H140" t="s">
+        <v>93</v>
+      </c>
+      <c r="I140" t="s">
+        <v>86</v>
+      </c>
+      <c r="J140" t="s">
+        <v>37</v>
+      </c>
+      <c r="K140" t="s">
+        <v>51</v>
+      </c>
+      <c r="L140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>89</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D141" s="17">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="E141" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" t="s">
+        <v>93</v>
+      </c>
+      <c r="H141" t="s">
+        <v>91</v>
+      </c>
+      <c r="I141" t="s">
+        <v>92</v>
+      </c>
+      <c r="J141" t="s">
+        <v>45</v>
+      </c>
+      <c r="K141" t="s">
+        <v>185</v>
+      </c>
+      <c r="L141" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="17">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="E142" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" t="s">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>158</v>
+      </c>
+      <c r="H142" t="s">
+        <v>93</v>
+      </c>
+      <c r="I142" t="s">
+        <v>283</v>
+      </c>
+      <c r="J142" t="s">
+        <v>56</v>
+      </c>
+      <c r="K142" t="s">
+        <v>62</v>
+      </c>
+      <c r="L142" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="17">
+        <v>0.24027777777777778</v>
+      </c>
+      <c r="E143" t="s">
+        <v>156</v>
+      </c>
+      <c r="F143" t="s">
+        <v>49</v>
+      </c>
+      <c r="G143" t="s">
+        <v>47</v>
+      </c>
+      <c r="H143" t="s">
+        <v>23</v>
+      </c>
+      <c r="I143" t="s">
+        <v>159</v>
+      </c>
+      <c r="J143" t="s">
+        <v>62</v>
+      </c>
+      <c r="K143" t="s">
+        <v>284</v>
+      </c>
+      <c r="L143" t="s">
         <v>31</v>
       </c>
     </row>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CBCE89-742B-42B2-8C21-65E1FE588EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643FA191-B131-4696-944A-ECE1AE2432E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="290">
   <si>
     <t>Player</t>
   </si>
@@ -891,6 +891,21 @@
   </si>
   <si>
     <t>YunJin</t>
+  </si>
+  <si>
+    <t>https://youtu.be/6DxEKdGHGF0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ws0VBgub_A8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/SKZu9_7vjgw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0_o3PhAY-7w?si=uh5dngdVZiSMTOE2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_nnVKCxSLjQ</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1490,7 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+      <selection activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6745,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D139" s="17">
         <v>0.28055555555555556</v>
@@ -6783,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D140" s="17">
         <v>0.18333333333333335</v>
@@ -6821,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="D141" s="17">
         <v>0.15069444444444444</v>
@@ -6848,7 +6863,7 @@
         <v>185</v>
       </c>
       <c r="L141" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -6859,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="D142" s="17">
         <v>0.15138888888888888</v>
@@ -6897,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="D143" s="17">
         <v>0.24027777777777778</v>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643FA191-B131-4696-944A-ECE1AE2432E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B037B6E7-DCCF-4624-BF26-FE75A959BFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="293">
   <si>
     <t>Player</t>
   </si>
@@ -890,9 +890,6 @@
     <t>Baizhu</t>
   </si>
   <si>
-    <t>YunJin</t>
-  </si>
-  <si>
     <t>https://youtu.be/6DxEKdGHGF0</t>
   </si>
   <si>
@@ -906,6 +903,18 @@
   </si>
   <si>
     <t>https://youtu.be/_nnVKCxSLjQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tSLkS8D5cGY?si=gF0Ghf4dwNfLMSBb</t>
+  </si>
+  <si>
+    <t>Hutao</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fQ-0ucxzx7Y</t>
+  </si>
+  <si>
+    <t>Heizhou</t>
   </si>
 </sst>
 </file>
@@ -1487,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="K148" sqref="K148"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6760,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D139" s="17">
         <v>0.28055555555555556</v>
@@ -6798,7 +6807,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D140" s="17">
         <v>0.18333333333333335</v>
@@ -6836,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D141" s="17">
         <v>0.15069444444444444</v>
@@ -6874,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D142" s="17">
         <v>0.15138888888888888</v>
@@ -6912,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D143" s="17">
         <v>0.24027777777777778</v>
@@ -6936,10 +6945,86 @@
         <v>62</v>
       </c>
       <c r="K143" t="s">
-        <v>284</v>
+        <v>111</v>
       </c>
       <c r="L143" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D144" s="17">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="E144" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" t="s">
+        <v>27</v>
+      </c>
+      <c r="G144" t="s">
+        <v>34</v>
+      </c>
+      <c r="H144" t="s">
+        <v>93</v>
+      </c>
+      <c r="I144" t="s">
+        <v>290</v>
+      </c>
+      <c r="J144" t="s">
+        <v>63</v>
+      </c>
+      <c r="K144" t="s">
+        <v>51</v>
+      </c>
+      <c r="L144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D145" s="17">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="E145" t="s">
+        <v>37</v>
+      </c>
+      <c r="F145" t="s">
+        <v>292</v>
+      </c>
+      <c r="G145" t="s">
+        <v>49</v>
+      </c>
+      <c r="H145" t="s">
+        <v>36</v>
+      </c>
+      <c r="I145" t="s">
+        <v>67</v>
+      </c>
+      <c r="J145" t="s">
+        <v>62</v>
+      </c>
+      <c r="K145" t="s">
+        <v>91</v>
+      </c>
+      <c r="L145" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B037B6E7-DCCF-4624-BF26-FE75A959BFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D614E9-6BA7-40A0-A994-AE8C86C05BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="291">
   <si>
     <t>Player</t>
   </si>
@@ -908,13 +908,7 @@
     <t>https://youtu.be/tSLkS8D5cGY?si=gF0Ghf4dwNfLMSBb</t>
   </si>
   <si>
-    <t>Hutao</t>
-  </si>
-  <si>
     <t>https://youtu.be/fQ-0ucxzx7Y</t>
-  </si>
-  <si>
-    <t>Heizhou</t>
   </si>
 </sst>
 </file>
@@ -1200,9 +1194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1240,7 +1234,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1346,7 +1340,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1488,7 +1482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1498,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6977,7 +6971,7 @@
         <v>93</v>
       </c>
       <c r="I144" t="s">
-        <v>290</v>
+        <v>86</v>
       </c>
       <c r="J144" t="s">
         <v>63</v>
@@ -6997,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D145" s="17">
         <v>0.25694444444444448</v>
@@ -7006,7 +7000,7 @@
         <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
         <v>49</v>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D614E9-6BA7-40A0-A994-AE8C86C05BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBFFA99-9FD7-42BB-861D-80A74CD96867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="298">
   <si>
     <t>Player</t>
   </si>
@@ -909,6 +909,27 @@
   </si>
   <si>
     <t>https://youtu.be/fQ-0ucxzx7Y</t>
+  </si>
+  <si>
+    <t>https://youtu.be/s-s37vJv6DM?si=8XN1FdQaDsxixAIg</t>
+  </si>
+  <si>
+    <t>Hutao</t>
+  </si>
+  <si>
+    <t>Muffin</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bpYIMjpeCHg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DHUkKWJFz1s?si=CDoBQw042Ybu-XhD</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eK6_9MJ_1rc</t>
+  </si>
+  <si>
+    <t>Furina</t>
   </si>
 </sst>
 </file>
@@ -1194,9 +1215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1234,7 +1255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1340,7 +1361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1482,7 +1503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1490,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+      <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7019,6 +7040,158 @@
       </c>
       <c r="L145" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D146" s="17">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="E146" t="s">
+        <v>102</v>
+      </c>
+      <c r="F146" t="s">
+        <v>33</v>
+      </c>
+      <c r="G146" t="s">
+        <v>62</v>
+      </c>
+      <c r="H146" t="s">
+        <v>93</v>
+      </c>
+      <c r="I146" t="s">
+        <v>257</v>
+      </c>
+      <c r="J146" t="s">
+        <v>297</v>
+      </c>
+      <c r="K146" t="s">
+        <v>23</v>
+      </c>
+      <c r="L146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>282</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D147" s="17">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
+        <v>63</v>
+      </c>
+      <c r="G147" t="s">
+        <v>51</v>
+      </c>
+      <c r="H147" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" t="s">
+        <v>28</v>
+      </c>
+      <c r="J147" t="s">
+        <v>175</v>
+      </c>
+      <c r="K147" t="s">
+        <v>34</v>
+      </c>
+      <c r="L147" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" s="17">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="E148" t="s">
+        <v>26</v>
+      </c>
+      <c r="F148" t="s">
+        <v>29</v>
+      </c>
+      <c r="G148" t="s">
+        <v>32</v>
+      </c>
+      <c r="H148" t="s">
+        <v>36</v>
+      </c>
+      <c r="I148" t="s">
+        <v>28</v>
+      </c>
+      <c r="J148" t="s">
+        <v>175</v>
+      </c>
+      <c r="K148" t="s">
+        <v>34</v>
+      </c>
+      <c r="L148" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>282</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D149" s="17">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
+        <v>63</v>
+      </c>
+      <c r="G149" t="s">
+        <v>51</v>
+      </c>
+      <c r="H149" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" t="s">
+        <v>28</v>
+      </c>
+      <c r="J149" t="s">
+        <v>158</v>
+      </c>
+      <c r="K149" t="s">
+        <v>37</v>
+      </c>
+      <c r="L149" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBFFA99-9FD7-42BB-861D-80A74CD96867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03266E55-2ECB-40E7-962C-6C3C32260017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="297">
   <si>
     <t>Player</t>
   </si>
@@ -912,9 +912,6 @@
   </si>
   <si>
     <t>https://youtu.be/s-s37vJv6DM?si=8XN1FdQaDsxixAIg</t>
-  </si>
-  <si>
-    <t>Hutao</t>
   </si>
   <si>
     <t>Muffin</t>
@@ -1514,7 +1511,7 @@
   <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7050,7 +7047,7 @@
         <v>2</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D146" s="17">
         <v>0.26944444444444443</v>
@@ -7071,7 +7068,7 @@
         <v>257</v>
       </c>
       <c r="J146" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K146" t="s">
         <v>23</v>
@@ -7094,7 +7091,7 @@
         <v>0.17291666666666669</v>
       </c>
       <c r="E147" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="F147" t="s">
         <v>63</v>
@@ -7120,13 +7117,13 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B148">
         <v>2</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D148" s="17">
         <v>0.18958333333333333</v>
@@ -7164,13 +7161,13 @@
         <v>2</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D149" s="17">
         <v>0.16458333333333333</v>
       </c>
       <c r="E149" t="s">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="F149" t="s">
         <v>63</v>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03266E55-2ECB-40E7-962C-6C3C32260017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6BA121-326C-4883-8F5B-B5DC35225BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="300">
   <si>
     <t>Player</t>
   </si>
@@ -927,6 +925,15 @@
   </si>
   <si>
     <t>Furina</t>
+  </si>
+  <si>
+    <t>https://youtu.be/c4lN8EpWApY?si=cML1iH7OONGiHSrA</t>
+  </si>
+  <si>
+    <t>tmty</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wcdNh5GPRgo?si=lYENtBPqVkZpbsZD</t>
   </si>
 </sst>
 </file>
@@ -1508,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7188,6 +7195,82 @@
         <v>37</v>
       </c>
       <c r="L149" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D150" s="17">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="E150" t="s">
+        <v>24</v>
+      </c>
+      <c r="F150" t="s">
+        <v>29</v>
+      </c>
+      <c r="G150" t="s">
+        <v>38</v>
+      </c>
+      <c r="H150" t="s">
+        <v>233</v>
+      </c>
+      <c r="I150" t="s">
+        <v>92</v>
+      </c>
+      <c r="J150" t="s">
+        <v>45</v>
+      </c>
+      <c r="K150" t="s">
+        <v>213</v>
+      </c>
+      <c r="L150" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D151" s="17">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="E151" t="s">
+        <v>110</v>
+      </c>
+      <c r="F151" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" t="s">
+        <v>296</v>
+      </c>
+      <c r="H151" t="s">
+        <v>97</v>
+      </c>
+      <c r="I151" t="s">
+        <v>28</v>
+      </c>
+      <c r="J151" t="s">
+        <v>158</v>
+      </c>
+      <c r="K151" t="s">
+        <v>34</v>
+      </c>
+      <c r="L151" t="s">
         <v>93</v>
       </c>
     </row>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6BA121-326C-4883-8F5B-B5DC35225BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2930738C-24C2-4612-9604-C42A9F9E4CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="314">
   <si>
     <t>Player</t>
   </si>
@@ -930,10 +931,52 @@
     <t>https://youtu.be/c4lN8EpWApY?si=cML1iH7OONGiHSrA</t>
   </si>
   <si>
-    <t>tmty</t>
-  </si>
-  <si>
     <t>https://youtu.be/wcdNh5GPRgo?si=lYENtBPqVkZpbsZD</t>
+  </si>
+  <si>
+    <t>https://youtu.be/6mDkkMd6idE</t>
+  </si>
+  <si>
+    <t>Hutao</t>
+  </si>
+  <si>
+    <t>tTty</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8SykPtYM5mg</t>
+  </si>
+  <si>
+    <t>Navia</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gfOq1Wga8qU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Wkv7RYaS-Qs</t>
+  </si>
+  <si>
+    <t>YunJin</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z7Yig4M1Lfs</t>
+  </si>
+  <si>
+    <t>Tmty</t>
+  </si>
+  <si>
+    <t>https://youtu.be/f2hYwmHafPo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DJ2uIpoVHQw</t>
+  </si>
+  <si>
+    <t>Allhaitham</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OVxZHxHTuPA?si=Q1NztQm6t4ao1U1z</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NC2e3XpPf7U?si=WQr_1tWRjXtftghU</t>
   </si>
 </sst>
 </file>
@@ -1219,9 +1262,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1259,7 +1302,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1365,7 +1408,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1507,7 +1550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1515,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6971,8 +7014,8 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>282</v>
+      <c r="A144" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -7085,8 +7128,8 @@
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>282</v>
+      <c r="A147" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -7161,8 +7204,8 @@
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>282</v>
+      <c r="A149" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -7238,13 +7281,13 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D151" s="17">
         <v>0.20972222222222223</v>
@@ -7272,6 +7315,348 @@
       </c>
       <c r="L151" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D152" s="17">
+        <v>0.1986111111111111</v>
+      </c>
+      <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
+        <v>63</v>
+      </c>
+      <c r="G152" t="s">
+        <v>51</v>
+      </c>
+      <c r="H152" t="s">
+        <v>31</v>
+      </c>
+      <c r="I152" t="s">
+        <v>257</v>
+      </c>
+      <c r="J152" t="s">
+        <v>296</v>
+      </c>
+      <c r="K152" t="s">
+        <v>283</v>
+      </c>
+      <c r="L152" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>234</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D153" s="17">
+        <v>0.18263888888888888</v>
+      </c>
+      <c r="E153" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" t="s">
+        <v>51</v>
+      </c>
+      <c r="G153" t="s">
+        <v>97</v>
+      </c>
+      <c r="H153" t="s">
+        <v>46</v>
+      </c>
+      <c r="I153" t="s">
+        <v>303</v>
+      </c>
+      <c r="J153" t="s">
+        <v>296</v>
+      </c>
+      <c r="K153" t="s">
+        <v>63</v>
+      </c>
+      <c r="L153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D154" s="17">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="E154" t="s">
+        <v>257</v>
+      </c>
+      <c r="F154" t="s">
+        <v>296</v>
+      </c>
+      <c r="G154" t="s">
+        <v>23</v>
+      </c>
+      <c r="H154" t="s">
+        <v>196</v>
+      </c>
+      <c r="I154" t="s">
+        <v>300</v>
+      </c>
+      <c r="J154" t="s">
+        <v>63</v>
+      </c>
+      <c r="K154" t="s">
+        <v>51</v>
+      </c>
+      <c r="L154" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>250</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D155" s="17">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="E155" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" t="s">
+        <v>51</v>
+      </c>
+      <c r="G155" t="s">
+        <v>41</v>
+      </c>
+      <c r="H155" t="s">
+        <v>91</v>
+      </c>
+      <c r="I155" t="s">
+        <v>110</v>
+      </c>
+      <c r="J155" t="s">
+        <v>37</v>
+      </c>
+      <c r="K155" t="s">
+        <v>63</v>
+      </c>
+      <c r="L155" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D156" s="17">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="E156" t="s">
+        <v>101</v>
+      </c>
+      <c r="F156" t="s">
+        <v>46</v>
+      </c>
+      <c r="G156" t="s">
+        <v>27</v>
+      </c>
+      <c r="H156" t="s">
+        <v>33</v>
+      </c>
+      <c r="I156" t="s">
+        <v>303</v>
+      </c>
+      <c r="J156" t="s">
+        <v>253</v>
+      </c>
+      <c r="K156" t="s">
+        <v>56</v>
+      </c>
+      <c r="L156" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D157" s="17">
+        <v>0.19166666666666668</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" t="s">
+        <v>158</v>
+      </c>
+      <c r="G157" t="s">
+        <v>93</v>
+      </c>
+      <c r="H157" t="s">
+        <v>95</v>
+      </c>
+      <c r="I157" t="s">
+        <v>110</v>
+      </c>
+      <c r="J157" t="s">
+        <v>296</v>
+      </c>
+      <c r="K157" t="s">
+        <v>29</v>
+      </c>
+      <c r="L157" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D158" s="17">
+        <v>0.22361111111111112</v>
+      </c>
+      <c r="E158" t="s">
+        <v>257</v>
+      </c>
+      <c r="F158" t="s">
+        <v>296</v>
+      </c>
+      <c r="G158" t="s">
+        <v>23</v>
+      </c>
+      <c r="H158" t="s">
+        <v>157</v>
+      </c>
+      <c r="I158" t="s">
+        <v>311</v>
+      </c>
+      <c r="J158" t="s">
+        <v>62</v>
+      </c>
+      <c r="K158" t="s">
+        <v>56</v>
+      </c>
+      <c r="L158" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D159" s="17">
+        <v>0.15625</v>
+      </c>
+      <c r="E159" t="s">
+        <v>47</v>
+      </c>
+      <c r="F159" t="s">
+        <v>51</v>
+      </c>
+      <c r="G159" t="s">
+        <v>49</v>
+      </c>
+      <c r="H159" t="s">
+        <v>46</v>
+      </c>
+      <c r="I159" t="s">
+        <v>110</v>
+      </c>
+      <c r="J159" t="s">
+        <v>296</v>
+      </c>
+      <c r="K159" t="s">
+        <v>29</v>
+      </c>
+      <c r="L159" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>223</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D160" s="17">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="E160" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" t="s">
+        <v>97</v>
+      </c>
+      <c r="G160" t="s">
+        <v>46</v>
+      </c>
+      <c r="H160" t="s">
+        <v>51</v>
+      </c>
+      <c r="I160" t="s">
+        <v>110</v>
+      </c>
+      <c r="J160" t="s">
+        <v>37</v>
+      </c>
+      <c r="K160" t="s">
+        <v>63</v>
+      </c>
+      <c r="L160" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2930738C-24C2-4612-9604-C42A9F9E4CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E01A77-B223-403B-8EEF-8F709383B15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="315">
   <si>
     <t>Player</t>
   </si>
@@ -955,9 +954,6 @@
     <t>https://youtu.be/Wkv7RYaS-Qs</t>
   </si>
   <si>
-    <t>YunJin</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=z7Yig4M1Lfs</t>
   </si>
   <si>
@@ -970,13 +966,19 @@
     <t>https://youtu.be/DJ2uIpoVHQw</t>
   </si>
   <si>
-    <t>Allhaitham</t>
-  </si>
-  <si>
     <t>https://youtu.be/OVxZHxHTuPA?si=Q1NztQm6t4ao1U1z</t>
   </si>
   <si>
     <t>https://youtu.be/NC2e3XpPf7U?si=WQr_1tWRjXtftghU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/puNezV-VkGY</t>
+  </si>
+  <si>
+    <t>Chevreuse</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aUeKuJ6YZlY?si=Yk5_5f8G95s80jJW</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
-  <dimension ref="A1:L160"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="H166" sqref="H166"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,14 +1571,14 @@
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="18"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6836,28 +6838,28 @@
       <c r="D139" s="17">
         <v>0.28055555555555556</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J139" t="s">
+      <c r="J139" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="K139" t="s">
+      <c r="K139" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="L139" t="s">
+      <c r="L139" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6874,28 +6876,28 @@
       <c r="D140" s="17">
         <v>0.18333333333333335</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K140" t="s">
+      <c r="K140" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L140" t="s">
+      <c r="L140" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6912,28 +6914,28 @@
       <c r="D141" s="17">
         <v>0.15069444444444444</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="J141" t="s">
+      <c r="J141" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K141" t="s">
+      <c r="K141" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="L141" t="s">
+      <c r="L141" s="18" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6950,28 +6952,28 @@
       <c r="D142" s="17">
         <v>0.15138888888888888</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="J142" t="s">
+      <c r="J142" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K142" t="s">
+      <c r="K142" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L142" t="s">
+      <c r="L142" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6988,28 +6990,28 @@
       <c r="D143" s="17">
         <v>0.24027777777777778</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K143" t="s">
+      <c r="K143" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L143" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7026,28 +7028,28 @@
       <c r="D144" s="17">
         <v>0.14930555555555555</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J144" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="K144" t="s">
+      <c r="K144" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L144" t="s">
+      <c r="L144" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7064,28 +7066,28 @@
       <c r="D145" s="17">
         <v>0.25694444444444448</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J145" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K145" t="s">
+      <c r="K145" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="L145" t="s">
+      <c r="L145" s="18" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7102,28 +7104,28 @@
       <c r="D146" s="17">
         <v>0.26944444444444443</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J146" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="K146" t="s">
+      <c r="K146" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L146" t="s">
+      <c r="L146" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7140,28 +7142,28 @@
       <c r="D147" s="17">
         <v>0.17291666666666669</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="K147" t="s">
+      <c r="K147" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L147" s="18" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7178,28 +7180,28 @@
       <c r="D148" s="17">
         <v>0.18958333333333333</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="K148" t="s">
+      <c r="K148" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L148" t="s">
+      <c r="L148" s="18" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7216,28 +7218,28 @@
       <c r="D149" s="17">
         <v>0.16458333333333333</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="K149" t="s">
+      <c r="K149" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="L149" t="s">
+      <c r="L149" s="18" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7254,28 +7256,28 @@
       <c r="D150" s="17">
         <v>0.17291666666666669</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K150" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="L150" t="s">
+      <c r="L150" s="18" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7292,28 +7294,28 @@
       <c r="D151" s="17">
         <v>0.20972222222222223</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="K151" t="s">
+      <c r="K151" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L151" t="s">
+      <c r="L151" s="18" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7330,28 +7332,28 @@
       <c r="D152" s="17">
         <v>0.1986111111111111</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H152" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J152" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="K152" t="s">
+      <c r="K152" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="L152" t="s">
+      <c r="L152" s="18" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7368,28 +7370,28 @@
       <c r="D153" s="17">
         <v>0.18263888888888888</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J153" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="K153" t="s">
+      <c r="K153" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="L153" t="s">
+      <c r="L153" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7406,28 +7408,28 @@
       <c r="D154" s="17">
         <v>0.13541666666666666</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K154" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L154" t="s">
+      <c r="L154" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7444,29 +7446,29 @@
       <c r="D155" s="17">
         <v>0.12083333333333333</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K155" t="s">
+      <c r="K155" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="L155" t="s">
-        <v>306</v>
+      <c r="L155" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -7477,71 +7479,71 @@
         <v>3</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D156" s="17">
         <v>0.15347222222222223</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="J156" t="s">
+      <c r="J156" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K156" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L156" t="s">
+      <c r="L156" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D157" s="17">
         <v>0.19166666666666668</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="K157" t="s">
+      <c r="K157" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L157" t="s">
+      <c r="L157" s="18" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7553,71 +7555,71 @@
         <v>3</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D158" s="17">
         <v>0.22361111111111112</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="I158" t="s">
-        <v>311</v>
-      </c>
-      <c r="J158" t="s">
+      <c r="I158" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J158" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K158" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L158" t="s">
+      <c r="L158" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B159">
         <v>3</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D159" s="17">
         <v>0.15625</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="J159" t="s">
+      <c r="J159" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="K159" t="s">
+      <c r="K159" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L159" t="s">
+      <c r="L159" s="18" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7629,34 +7631,110 @@
         <v>3</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D160" s="17">
         <v>0.19652777777777777</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="J160" t="s">
+      <c r="J160" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K160" t="s">
+      <c r="K160" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="L160" t="s">
-        <v>306</v>
+      <c r="L160" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>89</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D161" s="17">
+        <v>0.12291666666666666</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F161" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G161" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H161" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I161" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J161" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K161" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="L161" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>282</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D162" s="17">
+        <v>0.11597222222222223</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H162" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="I162" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="J162" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K162" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L162" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Deon Lee\.Net\JS\ProjectWB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E01A77-B223-403B-8EEF-8F709383B15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE1A7D5-C4AD-47FF-B9CF-A92734DCC451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1085581-6435-44B9-B82A-B6036D2595BD}"/>
   </bookViews>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59B03-84C8-48EE-AEDC-8E29E497FACA}">
   <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7421,7 +7421,7 @@
         <v>196</v>
       </c>
       <c r="I154" s="18" t="s">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c r="J154" s="18" t="s">
         <v>63</v>
@@ -7725,7 +7725,7 @@
         <v>196</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c r="J162" s="18" t="s">
         <v>63</v>
